--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>968798.3242914833</v>
+        <v>965283.6472141228</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17049749.49700683</v>
+        <v>17049749.49700684</v>
       </c>
     </row>
     <row r="8">
@@ -661,19 +661,19 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>327.3307872078741</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>98.98083833247769</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,13 +740,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
         <v>107.8702810193205</v>
@@ -755,7 +755,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
         <v>20.54110546596223</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -797,16 +797,16 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>85.31857412307389</v>
       </c>
       <c r="Y3" t="n">
-        <v>74.78140281006952</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -822,22 +822,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>128.3097650166884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.63388649156035</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>113.0507991522423</v>
       </c>
       <c r="G5" t="n">
         <v>4.641001266096112</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>365.8551171731269</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
         <v>107.8702810193205</v>
@@ -992,7 +992,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
         <v>20.54110546596223</v>
@@ -1028,19 +1028,19 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>125.4475858650426</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>52.78076342756878</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
         <v>157.8079400398083</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>25.45099468012291</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -1122,7 +1122,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>181.8006211200604</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>390.1527797502169</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>217.5410332021408</v>
       </c>
       <c r="F8" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>390.1527797502169</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9767248536474</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -1214,16 +1214,16 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
-        <v>70.53218915774207</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
         <v>105.9202115588047</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>211.5744117368965</v>
+        <v>159.6908732144031</v>
       </c>
       <c r="W9" t="n">
         <v>211.1008365810345</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>224.5085957954192</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>149.845198710546</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>5.222514746205269</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>403.1786453995563</v>
@@ -1390,7 +1390,7 @@
         <v>292.8230603803583</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>29.11077051132138</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>68.52059514405411</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1533,10 +1533,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -1545,10 +1545,10 @@
         <v>164.9219246653809</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.2792777028907</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>95.45600412326982</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>173.09621308161</v>
       </c>
       <c r="T13" t="n">
-        <v>234.3505027765594</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9343862067008</v>
+        <v>137.9651828891514</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.8034450336943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>81.85828648185273</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>403.1786453995563</v>
       </c>
       <c r="H14" t="n">
-        <v>292.8230603803583</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>29.11077051132138</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>100.6048301450641</v>
       </c>
       <c r="T14" t="n">
-        <v>213.5829564068317</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3728983537618</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>57.79161957601691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.26071433962851</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.9219246653809</v>
       </c>
       <c r="H16" t="n">
-        <v>142.2792777028907</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>95.45600412326982</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92553189821342</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>173.09621308161</v>
       </c>
       <c r="T16" t="n">
-        <v>234.3505027765594</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9343862067008</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>155.0337862693103</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>193.5203461709517</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1864,7 +1864,7 @@
         <v>292.8230603803583</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>14.9921454712592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>213.5829564068317</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3728983537618</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>48.07495509459331</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.9219246653809</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>58.71124155376329</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92553189821342</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>173.09621308161</v>
@@ -2058,7 +2058,7 @@
         <v>234.3505027765594</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9343862067008</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>61.05377833031431</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>105.1142340252258</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2149,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2241,19 +2241,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>52.53546914311301</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.9219246653809</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92553189821342</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>173.09621308161</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>234.3505027765594</v>
@@ -2301,7 +2301,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>72.18944807943377</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2320,7 +2320,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2329,16 +2329,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>272.6883352555351</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>403.1786453995563</v>
+        <v>399.5592365316151</v>
       </c>
       <c r="H23" t="n">
         <v>292.8230603803583</v>
       </c>
       <c r="I23" t="n">
-        <v>29.11077051132138</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>100.6048301450641</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>213.5829564068317</v>
@@ -2478,22 +2478,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>76.92060143883863</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>164.9219246653809</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.2792777028907</v>
       </c>
       <c r="I25" t="n">
         <v>95.45600412326982</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92553189821342</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.09621308161</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>234.3505027765594</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>180.8786018921976</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>184.7822657626698</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>403.1786453995563</v>
       </c>
       <c r="H26" t="n">
-        <v>292.8230603803583</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>29.11077051132138</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>254.3728983537618</v>
       </c>
       <c r="V26" t="n">
-        <v>327.6449824916856</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.9219246653809</v>
       </c>
       <c r="H28" t="n">
-        <v>142.2792777028907</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>95.45600412326982</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92553189821342</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.09621308161</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>234.3505027765594</v>
+        <v>28.32387297491252</v>
       </c>
       <c r="U28" t="n">
         <v>279.9343862067008</v>
@@ -2778,7 +2778,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>84.30383962066828</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2794,16 +2794,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>395.0337579079355</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>29.11077051132138</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>100.6048301450641</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>17.51739249216699</v>
       </c>
       <c r="U29" t="n">
         <v>254.3728983537618</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2952,16 +2952,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>141.7561009106163</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92553189821342</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>173.09621308161</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>234.3505027765594</v>
+        <v>57.36414402078904</v>
       </c>
       <c r="U31" t="n">
         <v>279.9343862067008</v>
@@ -3015,7 +3015,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3031,16 +3031,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>275.5139500993501</v>
       </c>
       <c r="E32" t="n">
-        <v>362.2745095028375</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>403.1786453995563</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>29.11077051132138</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>254.3728983537618</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>51.37271554312625</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>164.9219246653809</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92553189821342</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>173.09621308161</v>
@@ -3249,10 +3249,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>119.1134539481261</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>403.1786453995563</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>292.8230603803583</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>29.11077051132138</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>100.6048301450641</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3728983537618</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>111.8828331921068</v>
       </c>
       <c r="W35" t="n">
-        <v>314.8351604665872</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -3438,13 +3438,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9219246653809</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>95.45600412326982</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92553189821342</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.09621308161</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>234.3505027765594</v>
+        <v>23.23875657471689</v>
       </c>
       <c r="U37" t="n">
         <v>279.9343862067008</v>
       </c>
       <c r="V37" t="n">
-        <v>87.30202630042216</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>292.8230603803583</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>100.6048301450641</v>
       </c>
       <c r="T38" t="n">
         <v>213.5829564068317</v>
@@ -3562,16 +3562,16 @@
         <v>254.3728983537618</v>
       </c>
       <c r="V38" t="n">
-        <v>83.49859737935161</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>167.1787715899853</v>
       </c>
     </row>
     <row r="39">
@@ -3666,16 +3666,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>34.01924238577083</v>
       </c>
       <c r="E40" t="n">
-        <v>63.39637924257089</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>164.9219246653809</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>142.2792777028907</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92553189821342</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>234.3505027765594</v>
       </c>
       <c r="U40" t="n">
         <v>279.9343862067008</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3748,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>68.63308054155171</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>403.1786453995563</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.11077051132138</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>213.5829564068317</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3728983537618</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>109.1234784004206</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -3912,10 +3912,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.9219246653809</v>
       </c>
       <c r="H43" t="n">
-        <v>142.2792777028907</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>95.45600412326982</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>54.92553189821342</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>234.3505027765594</v>
+        <v>41.02994183100138</v>
       </c>
       <c r="U43" t="n">
         <v>279.9343862067008</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>147.5211409829858</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>242.4248180140129</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>403.1786453995563</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.11077051132138</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>213.5829564068317</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3728983537618</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>376.9660956760101</v>
       </c>
     </row>
     <row r="45">
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>6.243114332073522</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.9219246653809</v>
       </c>
       <c r="H46" t="n">
         <v>142.2792777028907</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>54.92553189821342</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>173.09621308161</v>
@@ -4194,7 +4194,7 @@
         <v>279.9343862067008</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>68.99743793906846</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69.69763440824993</v>
+        <v>1554.430343376782</v>
       </c>
       <c r="C2" t="n">
-        <v>63.61344776192411</v>
+        <v>1160.336626457371</v>
       </c>
       <c r="D2" t="n">
-        <v>63.18992189538872</v>
+        <v>829.6994676615386</v>
       </c>
       <c r="E2" t="n">
-        <v>52.89011045268948</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="F2" t="n">
-        <v>35.9001024467811</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="G2" t="n">
         <v>31.21222238001735</v>
@@ -4333,22 +4333,22 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K2" t="n">
-        <v>671.6489458004863</v>
+        <v>361.3007174531585</v>
       </c>
       <c r="L2" t="n">
-        <v>1057.900197753201</v>
+        <v>747.5519694058733</v>
       </c>
       <c r="M2" t="n">
-        <v>1057.900197753201</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="N2" t="n">
-        <v>1057.900197753201</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="O2" t="n">
-        <v>1057.900197753201</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="P2" t="n">
-        <v>1198.893466516011</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q2" t="n">
         <v>1520.054473311303</v>
@@ -4357,25 +4357,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S2" t="n">
-        <v>1460.630474220587</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T2" t="n">
-        <v>1460.630474220587</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U2" t="n">
-        <v>1203.569982480097</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V2" t="n">
-        <v>853.7324278165778</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W2" t="n">
-        <v>469.9721269517464</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X2" t="n">
-        <v>469.9721269517464</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Y2" t="n">
-        <v>75.87841003233534</v>
+        <v>1560.611119000868</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>384.8079640435415</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C3" t="n">
-        <v>384.8079640435415</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D3" t="n">
-        <v>267.9108062629339</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E3" t="n">
-        <v>267.9108062629339</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F3" t="n">
-        <v>158.9509264454385</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G3" t="n">
-        <v>51.96081375977718</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H3" t="n">
         <v>51.96081375977718</v>
@@ -4415,10 +4415,10 @@
         <v>224.0250799426506</v>
       </c>
       <c r="L3" t="n">
+        <v>224.0250799426506</v>
+      </c>
+      <c r="M3" t="n">
         <v>610.2763318953653</v>
-      </c>
-      <c r="M3" t="n">
-        <v>996.52758384808</v>
       </c>
       <c r="N3" t="n">
         <v>996.52758384808</v>
@@ -4427,7 +4427,7 @@
         <v>996.52758384808</v>
       </c>
       <c r="P3" t="n">
-        <v>1181.207134954254</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="Q3" t="n">
         <v>1531.051599638238</v>
@@ -4436,25 +4436,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S3" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T3" t="n">
-        <v>1401.269255187876</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U3" t="n">
-        <v>1203.918444326094</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V3" t="n">
-        <v>990.2069173191283</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="W3" t="n">
-        <v>776.973749055457</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="X3" t="n">
-        <v>600.6477671943499</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y3" t="n">
-        <v>525.1109966791281</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>581.612140914903</v>
+        <v>491.406062744571</v>
       </c>
       <c r="C4" t="n">
-        <v>410.5187684766195</v>
+        <v>320.3126903062875</v>
       </c>
       <c r="D4" t="n">
-        <v>410.5187684766195</v>
+        <v>160.8180456291976</v>
       </c>
       <c r="E4" t="n">
-        <v>249.6079533449389</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F4" t="n">
-        <v>249.6079533449389</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G4" t="n">
-        <v>82.35756227048236</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H4" t="n">
-        <v>82.35756227048236</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I4" t="n">
         <v>31.21222238001735</v>
@@ -4512,28 +4512,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R4" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S4" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T4" t="n">
-        <v>1560.611119000868</v>
+        <v>1235.789661652969</v>
       </c>
       <c r="U4" t="n">
-        <v>1560.611119000868</v>
+        <v>952.9915141990934</v>
       </c>
       <c r="V4" t="n">
-        <v>1286.72537394039</v>
+        <v>679.1057691386154</v>
       </c>
       <c r="W4" t="n">
-        <v>1007.655709449264</v>
+        <v>679.1057691386154</v>
       </c>
       <c r="X4" t="n">
-        <v>769.3118473089473</v>
+        <v>679.1057691386154</v>
       </c>
       <c r="Y4" t="n">
-        <v>769.3118473089473</v>
+        <v>679.1057691386154</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>544.058927364262</v>
+        <v>1025.055551251472</v>
       </c>
       <c r="C5" t="n">
-        <v>149.965210444851</v>
+        <v>630.9618343320608</v>
       </c>
       <c r="D5" t="n">
-        <v>149.5416845783156</v>
+        <v>630.5383084655253</v>
       </c>
       <c r="E5" t="n">
-        <v>139.2418731356163</v>
+        <v>236.4445915461143</v>
       </c>
       <c r="F5" t="n">
         <v>122.251865129708</v>
@@ -4573,16 +4573,16 @@
         <v>671.6489458004863</v>
       </c>
       <c r="L5" t="n">
-        <v>671.6489458004863</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="M5" t="n">
-        <v>671.6489458004863</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="N5" t="n">
         <v>853.1988602528609</v>
       </c>
       <c r="O5" t="n">
-        <v>853.1988602528609</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="P5" t="n">
         <v>1239.450112205576</v>
@@ -4594,25 +4594,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S5" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T5" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U5" t="n">
-        <v>1303.550627260378</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="V5" t="n">
-        <v>1303.550627260378</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="W5" t="n">
-        <v>919.7903263955463</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="X5" t="n">
-        <v>550.2397029883474</v>
+        <v>1031.236326875557</v>
       </c>
       <c r="Y5" t="n">
-        <v>550.2397029883474</v>
+        <v>1031.236326875557</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>401.9058775139882</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C6" t="n">
-        <v>267.9108062629339</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D6" t="n">
-        <v>267.9108062629339</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E6" t="n">
-        <v>267.9108062629339</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F6" t="n">
-        <v>158.9509264454385</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G6" t="n">
-        <v>51.96081375977718</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H6" t="n">
         <v>51.96081375977718</v>
@@ -4652,22 +4652,22 @@
         <v>417.4634743327321</v>
       </c>
       <c r="L6" t="n">
-        <v>803.7147262854468</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="M6" t="n">
-        <v>824.5154023641696</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="N6" t="n">
-        <v>824.5154023641696</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="O6" t="n">
-        <v>824.5154023641696</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="P6" t="n">
-        <v>1210.766654316884</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="Q6" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R6" t="n">
         <v>1560.611119000868</v>
@@ -4676,22 +4676,22 @@
         <v>1452.621109115176</v>
       </c>
       <c r="T6" t="n">
-        <v>1325.906375918164</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="U6" t="n">
-        <v>1128.555565056382</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="V6" t="n">
-        <v>914.8440380494161</v>
+        <v>1399.307206663087</v>
       </c>
       <c r="W6" t="n">
-        <v>701.6108697857449</v>
+        <v>1186.074038399415</v>
       </c>
       <c r="X6" t="n">
-        <v>701.6108697857449</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y6" t="n">
-        <v>542.2089101495749</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>544.576148697712</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C7" t="n">
-        <v>544.576148697712</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D7" t="n">
-        <v>385.081504020622</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E7" t="n">
-        <v>224.1706888889415</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F7" t="n">
-        <v>224.1706888889415</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G7" t="n">
-        <v>56.92029781448494</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H7" t="n">
-        <v>56.92029781448494</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I7" t="n">
         <v>31.21222238001735</v>
@@ -4749,28 +4749,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R7" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S7" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T7" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U7" t="n">
-        <v>1560.611119000868</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="V7" t="n">
-        <v>1286.72537394039</v>
+        <v>732.2627400418237</v>
       </c>
       <c r="W7" t="n">
-        <v>1007.655709449264</v>
+        <v>453.193075550698</v>
       </c>
       <c r="X7" t="n">
-        <v>769.3118473089473</v>
+        <v>214.8492134103814</v>
       </c>
       <c r="Y7" t="n">
-        <v>544.576148697712</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.1130015339825</v>
+        <v>590.0447377137326</v>
       </c>
       <c r="C8" t="n">
-        <v>453.0192846145714</v>
+        <v>583.9605510674068</v>
       </c>
       <c r="D8" t="n">
-        <v>452.595758748036</v>
+        <v>583.5370252008713</v>
       </c>
       <c r="E8" t="n">
-        <v>442.2959473053368</v>
+        <v>363.7986078249715</v>
       </c>
       <c r="F8" t="n">
-        <v>425.3059392994284</v>
+        <v>346.8085998190631</v>
       </c>
       <c r="G8" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H8" t="n">
         <v>31.21222238001735</v>
@@ -4804,28 +4804,28 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J8" t="n">
-        <v>40.13971065786654</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K8" t="n">
-        <v>426.3909626105813</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L8" t="n">
-        <v>426.3909626105813</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M8" t="n">
-        <v>426.3909626105813</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="N8" t="n">
-        <v>426.3909626105813</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="O8" t="n">
-        <v>812.642214563296</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="P8" t="n">
-        <v>1198.893466516011</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q8" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R8" t="n">
         <v>1560.611119000868</v>
@@ -4834,22 +4834,22 @@
         <v>1425.330043794968</v>
       </c>
       <c r="T8" t="n">
-        <v>1203.131331821587</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U8" t="n">
-        <v>1203.131331821587</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V8" t="n">
-        <v>853.2937771580679</v>
+        <v>596.225513337818</v>
       </c>
       <c r="W8" t="n">
-        <v>853.2937771580679</v>
+        <v>596.225513337818</v>
       </c>
       <c r="X8" t="n">
-        <v>853.2937771580679</v>
+        <v>596.225513337818</v>
       </c>
       <c r="Y8" t="n">
-        <v>853.2937771580679</v>
+        <v>596.225513337818</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>300.9427749225932</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C9" t="n">
-        <v>300.9427749225932</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D9" t="n">
-        <v>300.9427749225932</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E9" t="n">
-        <v>229.6981394097224</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F9" t="n">
         <v>229.6981394097224</v>
@@ -4883,28 +4883,28 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J9" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K9" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="L9" t="n">
-        <v>417.4634743327321</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4634743327321</v>
+        <v>438.2641504114549</v>
       </c>
       <c r="N9" t="n">
-        <v>758.5490957328082</v>
+        <v>438.2641504114549</v>
       </c>
       <c r="O9" t="n">
-        <v>1144.800347685523</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="P9" t="n">
-        <v>1531.051599638238</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q9" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R9" t="n">
         <v>1560.611119000868</v>
@@ -4913,22 +4913,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T9" t="n">
-        <v>1401.269255187876</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U9" t="n">
-        <v>1203.918444326094</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V9" t="n">
-        <v>990.2069173191283</v>
+        <v>1399.307206663087</v>
       </c>
       <c r="W9" t="n">
-        <v>776.973749055457</v>
+        <v>1186.074038399415</v>
       </c>
       <c r="X9" t="n">
-        <v>600.6477671943499</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y9" t="n">
-        <v>441.2458075581799</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>366.9367207077096</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="C10" t="n">
-        <v>195.8433482694261</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="D10" t="n">
-        <v>195.8433482694261</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="E10" t="n">
-        <v>195.8433482694261</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="F10" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="G10" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="H10" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I10" t="n">
         <v>31.21222238001735</v>
@@ -4986,28 +4986,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R10" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S10" t="n">
-        <v>1288.946632556178</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T10" t="n">
-        <v>1062.170273166865</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U10" t="n">
-        <v>779.3721257129893</v>
+        <v>851.872464403604</v>
       </c>
       <c r="V10" t="n">
-        <v>779.3721257129893</v>
+        <v>577.986719343126</v>
       </c>
       <c r="W10" t="n">
-        <v>779.3721257129893</v>
+        <v>298.9170548520003</v>
       </c>
       <c r="X10" t="n">
-        <v>779.3721257129893</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.636427101754</v>
+        <v>147.5582682756912</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1582.753537051527</v>
+        <v>1600.867141030868</v>
       </c>
       <c r="C11" t="n">
-        <v>1582.753537051527</v>
+        <v>1595.591873610459</v>
       </c>
       <c r="D11" t="n">
-        <v>1582.753537051527</v>
+        <v>1191.127943703519</v>
       </c>
       <c r="E11" t="n">
-        <v>1168.413321568424</v>
+        <v>776.7877282204158</v>
       </c>
       <c r="F11" t="n">
-        <v>747.3829095221113</v>
+        <v>776.7877282204158</v>
       </c>
       <c r="G11" t="n">
-        <v>340.1317525528626</v>
+        <v>369.536571251167</v>
       </c>
       <c r="H11" t="n">
-        <v>44.35088348179357</v>
+        <v>73.75570218009801</v>
       </c>
       <c r="I11" t="n">
         <v>44.35088348179357</v>
       </c>
       <c r="J11" t="n">
-        <v>94.6349980272749</v>
+        <v>421.410824915004</v>
       </c>
       <c r="K11" t="n">
-        <v>643.4771811144703</v>
+        <v>517.3227776962992</v>
       </c>
       <c r="L11" t="n">
-        <v>777.4096532071458</v>
+        <v>651.2552497889747</v>
       </c>
       <c r="M11" t="n">
-        <v>939.2614565997243</v>
+        <v>813.1070531815532</v>
       </c>
       <c r="N11" t="n">
-        <v>1105.600783775473</v>
+        <v>979.4463803573017</v>
       </c>
       <c r="O11" t="n">
-        <v>1654.442966862668</v>
+        <v>1131.115109376152</v>
       </c>
       <c r="P11" t="n">
-        <v>2145.836744984926</v>
+        <v>1608.546604758332</v>
       </c>
       <c r="Q11" t="n">
-        <v>2213.042080891739</v>
+        <v>2086.046413815598</v>
       </c>
       <c r="R11" t="n">
         <v>2217.544174089679</v>
@@ -5077,16 +5077,16 @@
         <v>2001.803814082778</v>
       </c>
       <c r="V11" t="n">
-        <v>1651.966259419258</v>
+        <v>2001.803814082778</v>
       </c>
       <c r="W11" t="n">
-        <v>1582.753537051527</v>
+        <v>2001.803814082778</v>
       </c>
       <c r="X11" t="n">
-        <v>1582.753537051527</v>
+        <v>2001.803814082778</v>
       </c>
       <c r="Y11" t="n">
-        <v>1582.753537051527</v>
+        <v>1600.867141030868</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>50.68470587174119</v>
       </c>
       <c r="J12" t="n">
-        <v>73.01235199677697</v>
+        <v>316.6807559714102</v>
       </c>
       <c r="K12" t="n">
-        <v>621.8545350839723</v>
+        <v>865.5229390586056</v>
       </c>
       <c r="L12" t="n">
-        <v>734.4889818928741</v>
+        <v>978.1573858675074</v>
       </c>
       <c r="M12" t="n">
-        <v>873.7676003049905</v>
+        <v>1117.436004279624</v>
       </c>
       <c r="N12" t="n">
-        <v>1422.609783392186</v>
+        <v>1266.236414475523</v>
       </c>
       <c r="O12" t="n">
-        <v>1829.147026944473</v>
+        <v>1393.360702229525</v>
       </c>
       <c r="P12" t="n">
-        <v>1923.345583513714</v>
+        <v>1517.375426509941</v>
       </c>
       <c r="Q12" t="n">
         <v>1966.097549408394</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>546.6631845017898</v>
+        <v>1107.205292619813</v>
       </c>
       <c r="C13" t="n">
-        <v>375.5698120635063</v>
+        <v>936.11192018153</v>
       </c>
       <c r="D13" t="n">
-        <v>375.5698120635063</v>
+        <v>776.6172755044399</v>
       </c>
       <c r="E13" t="n">
-        <v>375.5698120635063</v>
+        <v>615.7064603727594</v>
       </c>
       <c r="F13" t="n">
-        <v>210.9386861740976</v>
+        <v>451.0753344833506</v>
       </c>
       <c r="G13" t="n">
-        <v>44.35088348179357</v>
+        <v>284.4875317910466</v>
       </c>
       <c r="H13" t="n">
-        <v>44.35088348179357</v>
+        <v>140.7710896669146</v>
       </c>
       <c r="I13" t="n">
         <v>44.35088348179357</v>
@@ -5211,7 +5211,7 @@
         <v>1081.853855541386</v>
       </c>
       <c r="N13" t="n">
-        <v>1462.068988545299</v>
+        <v>1462.0689885453</v>
       </c>
       <c r="O13" t="n">
         <v>1813.419743188238</v>
@@ -5229,22 +5229,22 @@
         <v>1987.219179160564</v>
       </c>
       <c r="T13" t="n">
-        <v>1750.501499588282</v>
+        <v>1987.219179160564</v>
       </c>
       <c r="U13" t="n">
-        <v>1467.739493318887</v>
+        <v>1847.860408565462</v>
       </c>
       <c r="V13" t="n">
-        <v>1467.739493318887</v>
+        <v>1573.974663504983</v>
       </c>
       <c r="W13" t="n">
-        <v>1188.669828827761</v>
+        <v>1294.904999013858</v>
       </c>
       <c r="X13" t="n">
-        <v>950.3259666874446</v>
+        <v>1294.904999013858</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.3628908958342</v>
+        <v>1294.904999013858</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>774.0005011581065</v>
+        <v>1365.442181044542</v>
       </c>
       <c r="C14" t="n">
-        <v>774.0005011581065</v>
+        <v>955.317590357812</v>
       </c>
       <c r="D14" t="n">
-        <v>369.536571251167</v>
+        <v>955.317590357812</v>
       </c>
       <c r="E14" t="n">
-        <v>369.536571251167</v>
+        <v>872.6324524973547</v>
       </c>
       <c r="F14" t="n">
-        <v>369.536571251167</v>
+        <v>451.6020404510423</v>
       </c>
       <c r="G14" t="n">
-        <v>369.536571251167</v>
+        <v>44.35088348179357</v>
       </c>
       <c r="H14" t="n">
-        <v>73.75570218009801</v>
+        <v>44.35088348179357</v>
       </c>
       <c r="I14" t="n">
         <v>44.35088348179357</v>
@@ -5281,19 +5281,19 @@
         <v>421.410824915004</v>
       </c>
       <c r="K14" t="n">
-        <v>619.2867145703533</v>
+        <v>517.3227776962992</v>
       </c>
       <c r="L14" t="n">
-        <v>753.2191866630288</v>
+        <v>651.2552497889747</v>
       </c>
       <c r="M14" t="n">
-        <v>1302.061369750224</v>
+        <v>813.1070531815532</v>
       </c>
       <c r="N14" t="n">
-        <v>1468.400696925973</v>
+        <v>979.4463803573017</v>
       </c>
       <c r="O14" t="n">
-        <v>1620.069425944823</v>
+        <v>1186.700088747278</v>
       </c>
       <c r="P14" t="n">
         <v>1735.542271834473</v>
@@ -5308,22 +5308,22 @@
         <v>2115.923133539109</v>
       </c>
       <c r="T14" t="n">
-        <v>1900.182773532208</v>
+        <v>2115.923133539109</v>
       </c>
       <c r="U14" t="n">
-        <v>1643.240451962751</v>
+        <v>2115.923133539109</v>
       </c>
       <c r="V14" t="n">
-        <v>1643.240451962751</v>
+        <v>1766.085578875589</v>
       </c>
       <c r="W14" t="n">
-        <v>1643.240451962751</v>
+        <v>1766.085578875589</v>
       </c>
       <c r="X14" t="n">
-        <v>1242.597054131704</v>
+        <v>1365.442181044542</v>
       </c>
       <c r="Y14" t="n">
-        <v>1184.221680822596</v>
+        <v>1365.442181044542</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>50.68470587174119</v>
       </c>
       <c r="J15" t="n">
-        <v>73.01235199677697</v>
+        <v>316.6807559714102</v>
       </c>
       <c r="K15" t="n">
-        <v>424.9477419224062</v>
+        <v>865.5229390586056</v>
       </c>
       <c r="L15" t="n">
-        <v>537.582188731308</v>
+        <v>1007.973553578681</v>
       </c>
       <c r="M15" t="n">
-        <v>676.8608071434244</v>
+        <v>1147.252171990798</v>
       </c>
       <c r="N15" t="n">
-        <v>825.6612173393236</v>
+        <v>1296.052582186697</v>
       </c>
       <c r="O15" t="n">
-        <v>1374.503400426519</v>
+        <v>1423.176869940699</v>
       </c>
       <c r="P15" t="n">
-        <v>1923.345583513714</v>
+        <v>1517.375426509941</v>
       </c>
       <c r="Q15" t="n">
         <v>1966.097549408394</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.8742713030119</v>
+        <v>637.9469094745921</v>
       </c>
       <c r="C16" t="n">
-        <v>678.7808988647284</v>
+        <v>466.8535370363086</v>
       </c>
       <c r="D16" t="n">
-        <v>519.2862541876384</v>
+        <v>307.3588923592186</v>
       </c>
       <c r="E16" t="n">
-        <v>519.2862541876384</v>
+        <v>307.3588923592186</v>
       </c>
       <c r="F16" t="n">
-        <v>354.6551282982296</v>
+        <v>307.3588923592186</v>
       </c>
       <c r="G16" t="n">
-        <v>188.0673256059256</v>
+        <v>140.7710896669146</v>
       </c>
       <c r="H16" t="n">
-        <v>44.35088348179357</v>
+        <v>140.7710896669146</v>
       </c>
       <c r="I16" t="n">
         <v>44.35088348179357</v>
       </c>
       <c r="J16" t="n">
-        <v>104.3462160326912</v>
+        <v>104.3462160326911</v>
       </c>
       <c r="K16" t="n">
-        <v>334.3473503129696</v>
+        <v>334.3473503129695</v>
       </c>
       <c r="L16" t="n">
-        <v>690.792946872388</v>
+        <v>690.7929468723878</v>
       </c>
       <c r="M16" t="n">
         <v>1081.853855541386</v>
@@ -5460,28 +5460,28 @@
         <v>2217.544174089679</v>
       </c>
       <c r="R16" t="n">
-        <v>2162.063838838958</v>
+        <v>2217.544174089679</v>
       </c>
       <c r="S16" t="n">
-        <v>1987.219179160564</v>
+        <v>2042.699514411285</v>
       </c>
       <c r="T16" t="n">
-        <v>1750.501499588282</v>
+        <v>2042.699514411285</v>
       </c>
       <c r="U16" t="n">
-        <v>1467.739493318887</v>
+        <v>1759.93750814189</v>
       </c>
       <c r="V16" t="n">
-        <v>1193.853748258409</v>
+        <v>1486.051763081412</v>
       </c>
       <c r="W16" t="n">
-        <v>914.7840837672832</v>
+        <v>1206.982098590286</v>
       </c>
       <c r="X16" t="n">
-        <v>914.7840837672832</v>
+        <v>1050.382314479872</v>
       </c>
       <c r="Y16" t="n">
-        <v>914.7840837672832</v>
+        <v>825.6466158686364</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1361.10119164849</v>
+        <v>1190.645961366379</v>
       </c>
       <c r="C17" t="n">
-        <v>1361.10119164849</v>
+        <v>1190.645961366379</v>
       </c>
       <c r="D17" t="n">
-        <v>956.6372617415504</v>
+        <v>1190.645961366379</v>
       </c>
       <c r="E17" t="n">
-        <v>761.162164599175</v>
+        <v>776.3057458832752</v>
       </c>
       <c r="F17" t="n">
-        <v>340.1317525528626</v>
+        <v>355.2753338369628</v>
       </c>
       <c r="G17" t="n">
-        <v>340.1317525528626</v>
+        <v>355.2753338369628</v>
       </c>
       <c r="H17" t="n">
-        <v>44.35088348179357</v>
+        <v>59.49446476589378</v>
       </c>
       <c r="I17" t="n">
         <v>44.35088348179357</v>
       </c>
       <c r="J17" t="n">
-        <v>94.6349980272749</v>
+        <v>421.410824915004</v>
       </c>
       <c r="K17" t="n">
-        <v>190.5469508085702</v>
+        <v>970.2530080021994</v>
       </c>
       <c r="L17" t="n">
-        <v>370.7163307515821</v>
+        <v>1104.185480094875</v>
       </c>
       <c r="M17" t="n">
-        <v>919.5585138387775</v>
+        <v>1266.037283487453</v>
       </c>
       <c r="N17" t="n">
-        <v>1468.400696925973</v>
+        <v>1432.376610663202</v>
       </c>
       <c r="O17" t="n">
-        <v>1620.069425944823</v>
+        <v>1584.045339682052</v>
       </c>
       <c r="P17" t="n">
-        <v>1735.542271834473</v>
+        <v>1699.518185571703</v>
       </c>
       <c r="Q17" t="n">
-        <v>2213.042080891739</v>
+        <v>2086.046413815598</v>
       </c>
       <c r="R17" t="n">
         <v>2217.544174089679</v>
@@ -5548,19 +5548,19 @@
         <v>2001.803814082778</v>
       </c>
       <c r="U17" t="n">
-        <v>1744.861492513321</v>
+        <v>2001.803814082778</v>
       </c>
       <c r="V17" t="n">
-        <v>1744.861492513321</v>
+        <v>2001.803814082778</v>
       </c>
       <c r="W17" t="n">
-        <v>1361.10119164849</v>
+        <v>2001.803814082778</v>
       </c>
       <c r="X17" t="n">
-        <v>1361.10119164849</v>
+        <v>2001.803814082778</v>
       </c>
       <c r="Y17" t="n">
-        <v>1361.10119164849</v>
+        <v>1600.867141030868</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>50.68470587174119</v>
       </c>
       <c r="J18" t="n">
-        <v>73.01235199677697</v>
+        <v>316.6807559714102</v>
       </c>
       <c r="K18" t="n">
-        <v>569.3569079696167</v>
+        <v>386.4949635078422</v>
       </c>
       <c r="L18" t="n">
-        <v>681.9913547785185</v>
+        <v>499.1294103167439</v>
       </c>
       <c r="M18" t="n">
-        <v>1230.833537865714</v>
+        <v>638.4080287288604</v>
       </c>
       <c r="N18" t="n">
-        <v>1779.675720952909</v>
+        <v>787.2084389247595</v>
       </c>
       <c r="O18" t="n">
-        <v>1906.800008706912</v>
+        <v>968.5332434227452</v>
       </c>
       <c r="P18" t="n">
-        <v>2000.998565276153</v>
+        <v>1517.375426509941</v>
       </c>
       <c r="Q18" t="n">
-        <v>2043.750531170832</v>
+        <v>1966.097549408394</v>
       </c>
       <c r="R18" t="n">
         <v>2043.750531170832</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>264.0048166216865</v>
+        <v>602.2471581418023</v>
       </c>
       <c r="C19" t="n">
-        <v>92.91144418340298</v>
+        <v>431.1537857035188</v>
       </c>
       <c r="D19" t="n">
-        <v>92.91144418340298</v>
+        <v>431.1537857035188</v>
       </c>
       <c r="E19" t="n">
-        <v>92.91144418340298</v>
+        <v>270.2429705718383</v>
       </c>
       <c r="F19" t="n">
-        <v>44.35088348179357</v>
+        <v>270.2429705718383</v>
       </c>
       <c r="G19" t="n">
-        <v>44.35088348179357</v>
+        <v>103.6551678795343</v>
       </c>
       <c r="H19" t="n">
-        <v>44.35088348179357</v>
+        <v>103.6551678795343</v>
       </c>
       <c r="I19" t="n">
         <v>44.35088348179357</v>
       </c>
       <c r="J19" t="n">
-        <v>104.3462160326911</v>
+        <v>104.3462160326912</v>
       </c>
       <c r="K19" t="n">
-        <v>334.3473503129695</v>
+        <v>334.3473503129696</v>
       </c>
       <c r="L19" t="n">
-        <v>690.7929468723878</v>
+        <v>690.792946872388</v>
       </c>
       <c r="M19" t="n">
         <v>1081.853855541386</v>
@@ -5694,31 +5694,31 @@
         <v>2097.63750913802</v>
       </c>
       <c r="Q19" t="n">
-        <v>2217.544174089678</v>
+        <v>2217.544174089679</v>
       </c>
       <c r="R19" t="n">
-        <v>2162.063838838958</v>
+        <v>2217.544174089679</v>
       </c>
       <c r="S19" t="n">
-        <v>1987.219179160563</v>
+        <v>2042.699514411285</v>
       </c>
       <c r="T19" t="n">
-        <v>1750.501499588281</v>
+        <v>1805.981834839002</v>
       </c>
       <c r="U19" t="n">
-        <v>1467.739493318886</v>
+        <v>1805.981834839002</v>
       </c>
       <c r="V19" t="n">
-        <v>1193.853748258408</v>
+        <v>1532.096089778524</v>
       </c>
       <c r="W19" t="n">
-        <v>914.7840837672827</v>
+        <v>1253.026425287399</v>
       </c>
       <c r="X19" t="n">
-        <v>676.4402216269661</v>
+        <v>1014.682563147082</v>
       </c>
       <c r="Y19" t="n">
-        <v>451.7045230157308</v>
+        <v>789.9468645358467</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>875.505886214836</v>
+        <v>520.3615821268305</v>
       </c>
       <c r="C20" t="n">
-        <v>465.381295528106</v>
+        <v>520.3615821268305</v>
       </c>
       <c r="D20" t="n">
-        <v>465.381295528106</v>
+        <v>520.3615821268305</v>
       </c>
       <c r="E20" t="n">
-        <v>465.381295528106</v>
+        <v>106.0213666437272</v>
       </c>
       <c r="F20" t="n">
-        <v>44.35088348179357</v>
+        <v>106.0213666437272</v>
       </c>
       <c r="G20" t="n">
         <v>44.35088348179357</v>
@@ -5752,28 +5752,28 @@
         <v>44.35088348179357</v>
       </c>
       <c r="J20" t="n">
-        <v>94.6349980272749</v>
+        <v>421.410824915004</v>
       </c>
       <c r="K20" t="n">
-        <v>190.5469508085702</v>
+        <v>517.3227776962992</v>
       </c>
       <c r="L20" t="n">
-        <v>739.3891338957656</v>
+        <v>651.2552497889747</v>
       </c>
       <c r="M20" t="n">
-        <v>901.2409372883441</v>
+        <v>813.1070531815532</v>
       </c>
       <c r="N20" t="n">
-        <v>1067.580264464093</v>
+        <v>979.4463803573017</v>
       </c>
       <c r="O20" t="n">
-        <v>1219.248993482943</v>
+        <v>1186.700088747278</v>
       </c>
       <c r="P20" t="n">
-        <v>1608.546604758332</v>
+        <v>1735.542271834473</v>
       </c>
       <c r="Q20" t="n">
-        <v>2086.046413815598</v>
+        <v>2213.042080891739</v>
       </c>
       <c r="R20" t="n">
         <v>2217.544174089679</v>
@@ -5785,19 +5785,19 @@
         <v>2115.923133539109</v>
       </c>
       <c r="U20" t="n">
-        <v>2009.747139574234</v>
+        <v>2115.923133539109</v>
       </c>
       <c r="V20" t="n">
-        <v>1659.909584910715</v>
+        <v>2115.923133539109</v>
       </c>
       <c r="W20" t="n">
-        <v>1276.149284045883</v>
+        <v>1732.162832674277</v>
       </c>
       <c r="X20" t="n">
-        <v>875.505886214836</v>
+        <v>1331.51943484323</v>
       </c>
       <c r="Y20" t="n">
-        <v>875.505886214836</v>
+        <v>930.58276179132</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>44.35088348179357</v>
       </c>
       <c r="I21" t="n">
-        <v>44.35088348179357</v>
+        <v>50.68470587174119</v>
       </c>
       <c r="J21" t="n">
-        <v>66.67852960682936</v>
+        <v>73.01235199677697</v>
       </c>
       <c r="K21" t="n">
-        <v>136.4927371432613</v>
+        <v>142.8265595332089</v>
       </c>
       <c r="L21" t="n">
-        <v>685.3349202304566</v>
+        <v>691.6687426204044</v>
       </c>
       <c r="M21" t="n">
-        <v>824.6135386425731</v>
+        <v>1147.252171990798</v>
       </c>
       <c r="N21" t="n">
-        <v>1373.455721729768</v>
+        <v>1296.052582186697</v>
       </c>
       <c r="O21" t="n">
-        <v>1500.580009483771</v>
+        <v>1423.176869940699</v>
       </c>
       <c r="P21" t="n">
-        <v>1594.778566053012</v>
+        <v>1517.375426509941</v>
       </c>
       <c r="Q21" t="n">
-        <v>2043.500688951465</v>
+        <v>1966.097549408394</v>
       </c>
       <c r="R21" t="n">
         <v>2043.750531170832</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>264.0048166216865</v>
+        <v>700.4808416182564</v>
       </c>
       <c r="C22" t="n">
-        <v>264.0048166216865</v>
+        <v>529.3874691799729</v>
       </c>
       <c r="D22" t="n">
-        <v>264.0048166216865</v>
+        <v>369.8928245028828</v>
       </c>
       <c r="E22" t="n">
-        <v>210.9386861740976</v>
+        <v>208.9820093712023</v>
       </c>
       <c r="F22" t="n">
-        <v>210.9386861740976</v>
+        <v>44.35088348179357</v>
       </c>
       <c r="G22" t="n">
         <v>44.35088348179357</v>
@@ -5934,28 +5934,28 @@
         <v>2217.544174089678</v>
       </c>
       <c r="R22" t="n">
-        <v>2162.063838838958</v>
+        <v>2217.544174089678</v>
       </c>
       <c r="S22" t="n">
-        <v>1987.219179160563</v>
+        <v>2217.544174089678</v>
       </c>
       <c r="T22" t="n">
-        <v>1750.501499588281</v>
+        <v>1980.826494517396</v>
       </c>
       <c r="U22" t="n">
-        <v>1467.739493318886</v>
+        <v>1698.064488248001</v>
       </c>
       <c r="V22" t="n">
-        <v>1193.853748258408</v>
+        <v>1424.178743187523</v>
       </c>
       <c r="W22" t="n">
-        <v>914.7840837672827</v>
+        <v>1351.260108763853</v>
       </c>
       <c r="X22" t="n">
-        <v>676.4402216269661</v>
+        <v>1112.916246623536</v>
       </c>
       <c r="Y22" t="n">
-        <v>451.7045230157308</v>
+        <v>888.1805480123007</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1915.385519976631</v>
+        <v>2017.006560527202</v>
       </c>
       <c r="C23" t="n">
-        <v>1915.385519976631</v>
+        <v>1606.881969840472</v>
       </c>
       <c r="D23" t="n">
-        <v>1510.921590069692</v>
+        <v>1202.418039933532</v>
       </c>
       <c r="E23" t="n">
-        <v>1096.581374586588</v>
+        <v>788.077824450429</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1386117022093</v>
+        <v>788.077824450429</v>
       </c>
       <c r="G23" t="n">
-        <v>413.8874547329606</v>
+        <v>384.4826360346561</v>
       </c>
       <c r="H23" t="n">
-        <v>118.1065856618916</v>
+        <v>88.70176696358715</v>
       </c>
       <c r="I23" t="n">
-        <v>88.70176696358713</v>
+        <v>88.70176696358715</v>
       </c>
       <c r="J23" t="n">
-        <v>138.9858815090685</v>
+        <v>465.7617083967976</v>
       </c>
       <c r="K23" t="n">
-        <v>702.8592267682935</v>
+        <v>561.6736611780929</v>
       </c>
       <c r="L23" t="n">
-        <v>1643.913642755423</v>
+        <v>1502.728077165223</v>
       </c>
       <c r="M23" t="n">
-        <v>2674.441359352231</v>
+        <v>2533.25579376203</v>
       </c>
       <c r="N23" t="n">
-        <v>3685.94487101565</v>
+        <v>3544.75930542545</v>
       </c>
       <c r="O23" t="n">
-        <v>3837.6136000345</v>
+        <v>3696.4280344443</v>
       </c>
       <c r="P23" t="n">
-        <v>3953.086445924151</v>
+        <v>3826.090778848011</v>
       </c>
       <c r="Q23" t="n">
-        <v>4430.586254981416</v>
+        <v>4303.590587905276</v>
       </c>
       <c r="R23" t="n">
-        <v>4435.088348179356</v>
+        <v>4435.088348179357</v>
       </c>
       <c r="S23" t="n">
-        <v>4333.467307628786</v>
+        <v>4435.088348179357</v>
       </c>
       <c r="T23" t="n">
-        <v>4117.726947621885</v>
+        <v>4219.347988172456</v>
       </c>
       <c r="U23" t="n">
-        <v>3860.784626052429</v>
+        <v>3962.405666603</v>
       </c>
       <c r="V23" t="n">
-        <v>3510.94707138891</v>
+        <v>3612.56811193948</v>
       </c>
       <c r="W23" t="n">
-        <v>3127.186770524078</v>
+        <v>3228.807811074649</v>
       </c>
       <c r="X23" t="n">
-        <v>2726.543372693031</v>
+        <v>2828.164413243601</v>
       </c>
       <c r="Y23" t="n">
-        <v>2325.60669964112</v>
+        <v>2427.227740191691</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>151.8160299563872</v>
       </c>
       <c r="H24" t="n">
-        <v>88.70176696358713</v>
+        <v>88.70176696358715</v>
       </c>
       <c r="I24" t="n">
-        <v>88.70176696358713</v>
+        <v>95.03558935353476</v>
       </c>
       <c r="J24" t="n">
-        <v>111.0294130886229</v>
+        <v>361.0316394532038</v>
       </c>
       <c r="K24" t="n">
-        <v>180.8436206250549</v>
+        <v>941.9196282117036</v>
       </c>
       <c r="L24" t="n">
-        <v>531.9750424928186</v>
+        <v>1054.554075020605</v>
       </c>
       <c r="M24" t="n">
-        <v>671.253660904935</v>
+        <v>1193.832693432722</v>
       </c>
       <c r="N24" t="n">
-        <v>1746.373622672265</v>
+        <v>1342.633103628621</v>
       </c>
       <c r="O24" t="n">
-        <v>1873.497910426267</v>
+        <v>1469.757391382624</v>
       </c>
       <c r="P24" t="n">
-        <v>1967.696466995508</v>
+        <v>1563.955947951865</v>
       </c>
       <c r="Q24" t="n">
         <v>2010.448432890188</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>682.2977929563856</v>
+        <v>1058.160380874272</v>
       </c>
       <c r="C25" t="n">
-        <v>511.2044205181022</v>
+        <v>980.4628036633235</v>
       </c>
       <c r="D25" t="n">
-        <v>351.7097758410122</v>
+        <v>820.9681589862334</v>
       </c>
       <c r="E25" t="n">
-        <v>351.7097758410122</v>
+        <v>660.057343854553</v>
       </c>
       <c r="F25" t="n">
-        <v>351.7097758410122</v>
+        <v>495.4262179651442</v>
       </c>
       <c r="G25" t="n">
-        <v>185.1219731487082</v>
+        <v>328.8384152728402</v>
       </c>
       <c r="H25" t="n">
         <v>185.1219731487082</v>
       </c>
       <c r="I25" t="n">
-        <v>88.70176696358713</v>
+        <v>88.70176696358715</v>
       </c>
       <c r="J25" t="n">
         <v>148.6970995144847</v>
@@ -6171,28 +6171,28 @@
         <v>2261.895057571472</v>
       </c>
       <c r="R25" t="n">
-        <v>2206.414722320751</v>
+        <v>2261.895057571472</v>
       </c>
       <c r="S25" t="n">
-        <v>2031.570062642357</v>
+        <v>2261.895057571472</v>
       </c>
       <c r="T25" t="n">
-        <v>1794.852383070075</v>
+        <v>2261.895057571472</v>
       </c>
       <c r="U25" t="n">
-        <v>1612.146724593107</v>
+        <v>2261.895057571472</v>
       </c>
       <c r="V25" t="n">
-        <v>1612.146724593107</v>
+        <v>1988.009312510994</v>
       </c>
       <c r="W25" t="n">
-        <v>1333.077060101982</v>
+        <v>1708.939648019868</v>
       </c>
       <c r="X25" t="n">
-        <v>1094.733197961665</v>
+        <v>1470.595785879551</v>
       </c>
       <c r="Y25" t="n">
-        <v>869.99749935043</v>
+        <v>1245.860087268316</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>774.3008257009512</v>
+        <v>1916.413206186731</v>
       </c>
       <c r="C26" t="n">
-        <v>774.3008257009512</v>
+        <v>1506.288615500001</v>
       </c>
       <c r="D26" t="n">
-        <v>774.3008257009512</v>
+        <v>1101.824685593062</v>
       </c>
       <c r="E26" t="n">
-        <v>774.3008257009512</v>
+        <v>915.1759322974355</v>
       </c>
       <c r="F26" t="n">
-        <v>353.2704136546388</v>
+        <v>494.145520251123</v>
       </c>
       <c r="G26" t="n">
-        <v>353.2704136546388</v>
+        <v>86.89436328187422</v>
       </c>
       <c r="H26" t="n">
-        <v>57.48954458356977</v>
+        <v>86.89436328187422</v>
       </c>
       <c r="I26" t="n">
-        <v>57.48954458356977</v>
+        <v>57.48954458356979</v>
       </c>
       <c r="J26" t="n">
-        <v>426.2441411945321</v>
+        <v>107.7736591290511</v>
       </c>
       <c r="K26" t="n">
-        <v>522.1560939758274</v>
+        <v>819.2067733507272</v>
       </c>
       <c r="L26" t="n">
-        <v>656.0885660685029</v>
+        <v>1530.639887572403</v>
       </c>
       <c r="M26" t="n">
-        <v>817.9403694610814</v>
+        <v>1692.491690964982</v>
       </c>
       <c r="N26" t="n">
-        <v>1529.373483682757</v>
+        <v>1858.83101814073</v>
       </c>
       <c r="O26" t="n">
-        <v>1681.042212701607</v>
+        <v>2010.49974715958</v>
       </c>
       <c r="P26" t="n">
-        <v>2392.475326923283</v>
+        <v>2675.774132997596</v>
       </c>
       <c r="Q26" t="n">
-        <v>2869.975135980549</v>
+        <v>2742.979468904408</v>
       </c>
       <c r="R26" t="n">
-        <v>2874.477229178488</v>
+        <v>2874.477229178489</v>
       </c>
       <c r="S26" t="n">
         <v>2772.856188627919</v>
       </c>
       <c r="T26" t="n">
-        <v>2557.115828621018</v>
+        <v>2557.115828621019</v>
       </c>
       <c r="U26" t="n">
         <v>2300.173507051562</v>
       </c>
       <c r="V26" t="n">
-        <v>1969.218979282182</v>
+        <v>2300.173507051562</v>
       </c>
       <c r="W26" t="n">
-        <v>1585.458678417351</v>
+        <v>1916.413206186731</v>
       </c>
       <c r="X26" t="n">
-        <v>1585.458678417351</v>
+        <v>1916.413206186731</v>
       </c>
       <c r="Y26" t="n">
-        <v>1184.522005365441</v>
+        <v>1916.413206186731</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>456.2562833926036</v>
       </c>
       <c r="E27" t="n">
-        <v>335.7634673849315</v>
+        <v>335.7634673849316</v>
       </c>
       <c r="F27" t="n">
         <v>226.8035875674361</v>
@@ -6299,28 +6299,28 @@
         <v>120.6038075763699</v>
       </c>
       <c r="H27" t="n">
-        <v>57.48954458356977</v>
+        <v>57.48954458356979</v>
       </c>
       <c r="I27" t="n">
-        <v>57.48954458356977</v>
+        <v>61.59372901338708</v>
       </c>
       <c r="J27" t="n">
-        <v>79.81719070860555</v>
+        <v>327.5897791130561</v>
       </c>
       <c r="K27" t="n">
-        <v>293.0548367302501</v>
+        <v>908.477767871556</v>
       </c>
       <c r="L27" t="n">
-        <v>405.6892835391519</v>
+        <v>1021.112214680458</v>
       </c>
       <c r="M27" t="n">
-        <v>544.9679019512683</v>
+        <v>1160.390833092574</v>
       </c>
       <c r="N27" t="n">
-        <v>693.7683121471675</v>
+        <v>1309.191243288473</v>
       </c>
       <c r="O27" t="n">
-        <v>820.8925999011701</v>
+        <v>1436.315531042476</v>
       </c>
       <c r="P27" t="n">
         <v>1530.514087611717</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>618.0316527015933</v>
+        <v>715.5761795229278</v>
       </c>
       <c r="C28" t="n">
-        <v>618.0316527015933</v>
+        <v>544.4828070846443</v>
       </c>
       <c r="D28" t="n">
-        <v>458.5370080245033</v>
+        <v>384.9881624075543</v>
       </c>
       <c r="E28" t="n">
-        <v>297.6261928928228</v>
+        <v>224.0773472758738</v>
       </c>
       <c r="F28" t="n">
-        <v>297.6261928928228</v>
+        <v>224.0773472758738</v>
       </c>
       <c r="G28" t="n">
-        <v>297.6261928928228</v>
+        <v>57.48954458356979</v>
       </c>
       <c r="H28" t="n">
-        <v>153.9097507686908</v>
+        <v>57.48954458356979</v>
       </c>
       <c r="I28" t="n">
-        <v>57.48954458356977</v>
+        <v>57.48954458356979</v>
       </c>
       <c r="J28" t="n">
         <v>117.4848771344673</v>
@@ -6408,28 +6408,28 @@
         <v>2230.682835191455</v>
       </c>
       <c r="R28" t="n">
-        <v>2175.202499940734</v>
+        <v>2230.682835191455</v>
       </c>
       <c r="S28" t="n">
-        <v>2000.35784026234</v>
+        <v>2230.682835191455</v>
       </c>
       <c r="T28" t="n">
-        <v>1763.640160690058</v>
+        <v>2202.072862489523</v>
       </c>
       <c r="U28" t="n">
-        <v>1480.878154420663</v>
+        <v>1919.310856220128</v>
       </c>
       <c r="V28" t="n">
-        <v>1206.992409360185</v>
+        <v>1645.42511115965</v>
       </c>
       <c r="W28" t="n">
-        <v>927.9227448690592</v>
+        <v>1366.355446668524</v>
       </c>
       <c r="X28" t="n">
-        <v>842.7673513128286</v>
+        <v>1128.011584528208</v>
       </c>
       <c r="Y28" t="n">
-        <v>618.0316527015933</v>
+        <v>903.2758859169721</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1321.288988698094</v>
+        <v>1286.418280660343</v>
       </c>
       <c r="C29" t="n">
-        <v>1321.288988698094</v>
+        <v>876.2936899736126</v>
       </c>
       <c r="D29" t="n">
-        <v>922.26499081129</v>
+        <v>471.8297600666731</v>
       </c>
       <c r="E29" t="n">
-        <v>507.9247753281867</v>
+        <v>57.48954458356979</v>
       </c>
       <c r="F29" t="n">
-        <v>86.89436328187421</v>
+        <v>57.48954458356979</v>
       </c>
       <c r="G29" t="n">
-        <v>86.89436328187421</v>
+        <v>57.48954458356979</v>
       </c>
       <c r="H29" t="n">
-        <v>86.89436328187421</v>
+        <v>57.48954458356979</v>
       </c>
       <c r="I29" t="n">
-        <v>57.48954458356977</v>
+        <v>57.48954458356979</v>
       </c>
       <c r="J29" t="n">
         <v>107.7736591290511</v>
       </c>
       <c r="K29" t="n">
-        <v>819.206773350727</v>
+        <v>203.6856119103464</v>
       </c>
       <c r="L29" t="n">
-        <v>953.1392454434024</v>
+        <v>337.6180840030219</v>
       </c>
       <c r="M29" t="n">
-        <v>1114.991048835981</v>
+        <v>499.4698873956004</v>
       </c>
       <c r="N29" t="n">
-        <v>1281.330376011729</v>
+        <v>842.6134314037909</v>
       </c>
       <c r="O29" t="n">
-        <v>1992.763490233405</v>
+        <v>1554.046545625467</v>
       </c>
       <c r="P29" t="n">
-        <v>2704.196604455081</v>
+        <v>2265.479659847143</v>
       </c>
       <c r="Q29" t="n">
-        <v>2869.975135980549</v>
+        <v>2742.979468904408</v>
       </c>
       <c r="R29" t="n">
-        <v>2874.477229178488</v>
+        <v>2874.477229178489</v>
       </c>
       <c r="S29" t="n">
         <v>2772.856188627919</v>
       </c>
       <c r="T29" t="n">
-        <v>2772.856188627919</v>
+        <v>2755.161852777246</v>
       </c>
       <c r="U29" t="n">
-        <v>2515.913867058462</v>
+        <v>2498.219531207789</v>
       </c>
       <c r="V29" t="n">
-        <v>2515.913867058462</v>
+        <v>2498.219531207789</v>
       </c>
       <c r="W29" t="n">
-        <v>2132.15356619363</v>
+        <v>2498.219531207789</v>
       </c>
       <c r="X29" t="n">
-        <v>1731.510168362583</v>
+        <v>2097.576133376742</v>
       </c>
       <c r="Y29" t="n">
-        <v>1731.510168362583</v>
+        <v>1696.639460324832</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>456.2562833926036</v>
       </c>
       <c r="E30" t="n">
-        <v>335.7634673849315</v>
+        <v>335.7634673849316</v>
       </c>
       <c r="F30" t="n">
         <v>226.8035875674361</v>
@@ -6536,22 +6536,22 @@
         <v>120.6038075763699</v>
       </c>
       <c r="H30" t="n">
-        <v>57.48954458356977</v>
+        <v>57.48954458356979</v>
       </c>
       <c r="I30" t="n">
-        <v>63.82336697351738</v>
+        <v>61.59372901338708</v>
       </c>
       <c r="J30" t="n">
-        <v>86.15101309855316</v>
+        <v>327.5897791130561</v>
       </c>
       <c r="K30" t="n">
-        <v>345.8450638457792</v>
+        <v>908.477767871556</v>
       </c>
       <c r="L30" t="n">
-        <v>458.479510654681</v>
+        <v>1021.112214680458</v>
       </c>
       <c r="M30" t="n">
-        <v>597.7581290667974</v>
+        <v>1160.390833092574</v>
       </c>
       <c r="N30" t="n">
         <v>1309.191243288473</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>515.4873398637795</v>
+        <v>686.2425724058812</v>
       </c>
       <c r="C31" t="n">
-        <v>344.393967425496</v>
+        <v>686.2425724058812</v>
       </c>
       <c r="D31" t="n">
-        <v>201.2059867077018</v>
+        <v>526.7479277287912</v>
       </c>
       <c r="E31" t="n">
-        <v>201.2059867077018</v>
+        <v>365.8371125971106</v>
       </c>
       <c r="F31" t="n">
         <v>201.2059867077018</v>
@@ -6615,10 +6615,10 @@
         <v>201.2059867077018</v>
       </c>
       <c r="H31" t="n">
-        <v>57.48954458356977</v>
+        <v>57.48954458356979</v>
       </c>
       <c r="I31" t="n">
-        <v>57.48954458356977</v>
+        <v>57.48954458356979</v>
       </c>
       <c r="J31" t="n">
         <v>117.4848771344673</v>
@@ -6645,28 +6645,28 @@
         <v>2230.682835191455</v>
       </c>
       <c r="R31" t="n">
-        <v>2175.202499940734</v>
+        <v>2230.682835191455</v>
       </c>
       <c r="S31" t="n">
-        <v>2000.35784026234</v>
+        <v>2230.682835191455</v>
       </c>
       <c r="T31" t="n">
-        <v>1763.640160690058</v>
+        <v>2172.739255372476</v>
       </c>
       <c r="U31" t="n">
-        <v>1480.878154420663</v>
+        <v>1889.977249103081</v>
       </c>
       <c r="V31" t="n">
-        <v>1206.992409360185</v>
+        <v>1616.091504042603</v>
       </c>
       <c r="W31" t="n">
-        <v>927.9227448690592</v>
+        <v>1337.021839551478</v>
       </c>
       <c r="X31" t="n">
-        <v>927.9227448690592</v>
+        <v>1098.677977411161</v>
       </c>
       <c r="Y31" t="n">
-        <v>703.1870462578239</v>
+        <v>873.9422787999256</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1240.799140222213</v>
+        <v>1607.813067072811</v>
       </c>
       <c r="C32" t="n">
-        <v>830.6745495354827</v>
+        <v>1607.813067072811</v>
       </c>
       <c r="D32" t="n">
-        <v>830.6745495354827</v>
+        <v>1329.516147780539</v>
       </c>
       <c r="E32" t="n">
-        <v>464.7407015528186</v>
+        <v>915.1759322974355</v>
       </c>
       <c r="F32" t="n">
-        <v>464.7407015528186</v>
+        <v>494.145520251123</v>
       </c>
       <c r="G32" t="n">
-        <v>57.48954458356977</v>
+        <v>86.89436328187422</v>
       </c>
       <c r="H32" t="n">
-        <v>57.48954458356977</v>
+        <v>86.89436328187422</v>
       </c>
       <c r="I32" t="n">
-        <v>57.48954458356977</v>
+        <v>57.48954458356979</v>
       </c>
       <c r="J32" t="n">
-        <v>434.5494860167802</v>
+        <v>107.7736591290511</v>
       </c>
       <c r="K32" t="n">
-        <v>530.4614387980754</v>
+        <v>819.2067733507272</v>
       </c>
       <c r="L32" t="n">
-        <v>664.3939108907509</v>
+        <v>1530.639887572403</v>
       </c>
       <c r="M32" t="n">
-        <v>1375.827025112427</v>
+        <v>1824.19511094356</v>
       </c>
       <c r="N32" t="n">
-        <v>1812.672289757069</v>
+        <v>2535.628225165236</v>
       </c>
       <c r="O32" t="n">
-        <v>1964.341018775919</v>
+        <v>2687.296954184086</v>
       </c>
       <c r="P32" t="n">
-        <v>2675.774132997595</v>
+        <v>2802.769800073737</v>
       </c>
       <c r="Q32" t="n">
-        <v>2742.979468904407</v>
+        <v>2869.97513598055</v>
       </c>
       <c r="R32" t="n">
-        <v>2874.477229178488</v>
+        <v>2874.477229178489</v>
       </c>
       <c r="S32" t="n">
-        <v>2874.477229178488</v>
+        <v>2874.477229178489</v>
       </c>
       <c r="T32" t="n">
-        <v>2658.736869171588</v>
+        <v>2658.736869171589</v>
       </c>
       <c r="U32" t="n">
-        <v>2401.794547602131</v>
+        <v>2401.794547602132</v>
       </c>
       <c r="V32" t="n">
-        <v>2051.956992938612</v>
+        <v>2401.794547602132</v>
       </c>
       <c r="W32" t="n">
-        <v>2051.956992938612</v>
+        <v>2018.034246737301</v>
       </c>
       <c r="X32" t="n">
-        <v>2051.956992938612</v>
+        <v>2018.034246737301</v>
       </c>
       <c r="Y32" t="n">
-        <v>1651.020319886702</v>
+        <v>2018.034246737301</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>456.2562833926036</v>
       </c>
       <c r="E33" t="n">
-        <v>335.7634673849315</v>
+        <v>335.7634673849316</v>
       </c>
       <c r="F33" t="n">
         <v>226.8035875674361</v>
@@ -6773,25 +6773,25 @@
         <v>120.6038075763699</v>
       </c>
       <c r="H33" t="n">
-        <v>57.48954458356977</v>
+        <v>57.48954458356979</v>
       </c>
       <c r="I33" t="n">
-        <v>57.48954458356977</v>
+        <v>61.59372901338708</v>
       </c>
       <c r="J33" t="n">
-        <v>79.81719070860555</v>
+        <v>327.5897791130561</v>
       </c>
       <c r="K33" t="n">
-        <v>149.6313982450375</v>
+        <v>908.477767871556</v>
       </c>
       <c r="L33" t="n">
-        <v>262.2658450539392</v>
+        <v>1021.112214680458</v>
       </c>
       <c r="M33" t="n">
-        <v>401.5444634660556</v>
+        <v>1160.390833092574</v>
       </c>
       <c r="N33" t="n">
-        <v>724.8824168208</v>
+        <v>1309.191243288473</v>
       </c>
       <c r="O33" t="n">
         <v>1436.315531042476</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>395.1707197141573</v>
+        <v>611.6934774653097</v>
       </c>
       <c r="C34" t="n">
-        <v>224.0773472758738</v>
+        <v>440.6001050270262</v>
       </c>
       <c r="D34" t="n">
-        <v>224.0773472758738</v>
+        <v>440.6001050270262</v>
       </c>
       <c r="E34" t="n">
-        <v>224.0773472758738</v>
+        <v>388.7084731652825</v>
       </c>
       <c r="F34" t="n">
         <v>224.0773472758738</v>
       </c>
       <c r="G34" t="n">
-        <v>57.48954458356977</v>
+        <v>57.48954458356979</v>
       </c>
       <c r="H34" t="n">
-        <v>57.48954458356977</v>
+        <v>57.48954458356979</v>
       </c>
       <c r="I34" t="n">
-        <v>57.48954458356977</v>
+        <v>57.48954458356979</v>
       </c>
       <c r="J34" t="n">
         <v>117.4848771344673</v>
@@ -6882,28 +6882,28 @@
         <v>2230.682835191455</v>
       </c>
       <c r="R34" t="n">
-        <v>2175.202499940734</v>
+        <v>2230.682835191455</v>
       </c>
       <c r="S34" t="n">
-        <v>2000.35784026234</v>
+        <v>2055.838175513061</v>
       </c>
       <c r="T34" t="n">
-        <v>1763.640160690058</v>
+        <v>1819.120495940779</v>
       </c>
       <c r="U34" t="n">
-        <v>1480.878154420663</v>
+        <v>1536.358489671384</v>
       </c>
       <c r="V34" t="n">
-        <v>1206.992409360185</v>
+        <v>1262.472744610906</v>
       </c>
       <c r="W34" t="n">
-        <v>927.9227448690592</v>
+        <v>1262.472744610906</v>
       </c>
       <c r="X34" t="n">
-        <v>807.6061247194369</v>
+        <v>1024.128882470589</v>
       </c>
       <c r="Y34" t="n">
-        <v>582.8704261082016</v>
+        <v>799.3931838593541</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1191.127943703519</v>
+        <v>1694.310031604879</v>
       </c>
       <c r="C35" t="n">
-        <v>1191.127943703519</v>
+        <v>1284.185440918149</v>
       </c>
       <c r="D35" t="n">
-        <v>1191.127943703519</v>
+        <v>879.7215110112093</v>
       </c>
       <c r="E35" t="n">
-        <v>776.7877282204158</v>
+        <v>465.381295528106</v>
       </c>
       <c r="F35" t="n">
-        <v>776.7877282204158</v>
+        <v>44.35088348179357</v>
       </c>
       <c r="G35" t="n">
-        <v>369.536571251167</v>
+        <v>44.35088348179357</v>
       </c>
       <c r="H35" t="n">
-        <v>73.755702180098</v>
+        <v>44.35088348179357</v>
       </c>
       <c r="I35" t="n">
         <v>44.35088348179357</v>
       </c>
       <c r="J35" t="n">
-        <v>94.63499802727489</v>
+        <v>421.410824915004</v>
       </c>
       <c r="K35" t="n">
-        <v>190.5469508085702</v>
+        <v>517.3227776962992</v>
       </c>
       <c r="L35" t="n">
-        <v>360.533256377853</v>
+        <v>651.2552497889747</v>
       </c>
       <c r="M35" t="n">
-        <v>522.3850597704316</v>
+        <v>813.1070531815532</v>
       </c>
       <c r="N35" t="n">
-        <v>1071.227242857627</v>
+        <v>979.4463803573017</v>
       </c>
       <c r="O35" t="n">
-        <v>1620.069425944822</v>
+        <v>1131.115109376152</v>
       </c>
       <c r="P35" t="n">
-        <v>1735.542271834473</v>
+        <v>1608.546604758332</v>
       </c>
       <c r="Q35" t="n">
-        <v>2213.042080891738</v>
+        <v>2086.046413815597</v>
       </c>
       <c r="R35" t="n">
         <v>2217.544174089678</v>
       </c>
       <c r="S35" t="n">
-        <v>2115.923133539108</v>
+        <v>2217.544174089678</v>
       </c>
       <c r="T35" t="n">
-        <v>2115.923133539108</v>
+        <v>2217.544174089678</v>
       </c>
       <c r="U35" t="n">
-        <v>1858.980811969652</v>
+        <v>2217.544174089678</v>
       </c>
       <c r="V35" t="n">
-        <v>1509.143257306132</v>
+        <v>2104.531211269368</v>
       </c>
       <c r="W35" t="n">
-        <v>1191.127943703519</v>
+        <v>2104.531211269368</v>
       </c>
       <c r="X35" t="n">
-        <v>1191.127943703519</v>
+        <v>2104.531211269368</v>
       </c>
       <c r="Y35" t="n">
-        <v>1191.127943703519</v>
+        <v>2104.531211269368</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>44.35088348179357</v>
       </c>
       <c r="I36" t="n">
-        <v>44.35088348179357</v>
+        <v>50.68470587174118</v>
       </c>
       <c r="J36" t="n">
-        <v>310.3469335814626</v>
+        <v>73.01235199677697</v>
       </c>
       <c r="K36" t="n">
-        <v>380.1611411178945</v>
+        <v>621.8545350839722</v>
       </c>
       <c r="L36" t="n">
-        <v>929.0033242050898</v>
+        <v>734.488981892874</v>
       </c>
       <c r="M36" t="n">
-        <v>1068.281942617206</v>
+        <v>873.7676003049904</v>
       </c>
       <c r="N36" t="n">
-        <v>1617.124125704401</v>
+        <v>1022.56801050089</v>
       </c>
       <c r="O36" t="n">
-        <v>1744.248413458404</v>
+        <v>1149.692298254892</v>
       </c>
       <c r="P36" t="n">
-        <v>1923.345583513714</v>
+        <v>1698.534481342087</v>
       </c>
       <c r="Q36" t="n">
         <v>1966.097549408394</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>637.4064031262874</v>
+        <v>707.5739996334703</v>
       </c>
       <c r="C37" t="n">
-        <v>466.3130306880038</v>
+        <v>536.4806271951868</v>
       </c>
       <c r="D37" t="n">
-        <v>466.3130306880038</v>
+        <v>536.4806271951868</v>
       </c>
       <c r="E37" t="n">
-        <v>305.4022155563233</v>
+        <v>375.5698120635063</v>
       </c>
       <c r="F37" t="n">
-        <v>140.7710896669146</v>
+        <v>210.9386861740976</v>
       </c>
       <c r="G37" t="n">
-        <v>140.7710896669146</v>
+        <v>44.35088348179357</v>
       </c>
       <c r="H37" t="n">
-        <v>140.7710896669146</v>
+        <v>44.35088348179357</v>
       </c>
       <c r="I37" t="n">
         <v>44.35088348179357</v>
@@ -7119,28 +7119,28 @@
         <v>2217.544174089678</v>
       </c>
       <c r="R37" t="n">
-        <v>2162.063838838958</v>
+        <v>2217.544174089678</v>
       </c>
       <c r="S37" t="n">
-        <v>1987.219179160563</v>
+        <v>2217.544174089678</v>
       </c>
       <c r="T37" t="n">
-        <v>1750.501499588281</v>
+        <v>2194.070682600065</v>
       </c>
       <c r="U37" t="n">
-        <v>1467.739493318886</v>
+        <v>1911.30867633067</v>
       </c>
       <c r="V37" t="n">
-        <v>1379.555628368965</v>
+        <v>1637.422931270192</v>
       </c>
       <c r="W37" t="n">
-        <v>1100.485963877839</v>
+        <v>1358.353266779066</v>
       </c>
       <c r="X37" t="n">
-        <v>862.1421017375227</v>
+        <v>1120.00940463875</v>
       </c>
       <c r="Y37" t="n">
-        <v>637.4064031262874</v>
+        <v>895.2737060275147</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>858.939404075463</v>
+        <v>340.1317525528626</v>
       </c>
       <c r="C38" t="n">
-        <v>448.8148133887331</v>
+        <v>340.1317525528626</v>
       </c>
       <c r="D38" t="n">
-        <v>44.35088348179357</v>
+        <v>340.1317525528626</v>
       </c>
       <c r="E38" t="n">
-        <v>44.35088348179357</v>
+        <v>340.1317525528626</v>
       </c>
       <c r="F38" t="n">
-        <v>44.35088348179357</v>
+        <v>340.1317525528626</v>
       </c>
       <c r="G38" t="n">
-        <v>44.35088348179357</v>
+        <v>340.1317525528626</v>
       </c>
       <c r="H38" t="n">
         <v>44.35088348179357</v>
@@ -7177,19 +7177,19 @@
         <v>421.410824915004</v>
       </c>
       <c r="K38" t="n">
-        <v>517.3227776962992</v>
+        <v>970.2530080021993</v>
       </c>
       <c r="L38" t="n">
-        <v>1066.164960783495</v>
+        <v>1117.134702310553</v>
       </c>
       <c r="M38" t="n">
-        <v>1329.852986989229</v>
+        <v>1278.986505703131</v>
       </c>
       <c r="N38" t="n">
-        <v>1878.695170076425</v>
+        <v>1445.32583287888</v>
       </c>
       <c r="O38" t="n">
-        <v>2030.363899095275</v>
+        <v>1596.99456189773</v>
       </c>
       <c r="P38" t="n">
         <v>2145.836744984925</v>
@@ -7201,25 +7201,25 @@
         <v>2217.544174089678</v>
       </c>
       <c r="S38" t="n">
-        <v>2217.544174089678</v>
+        <v>2115.923133539108</v>
       </c>
       <c r="T38" t="n">
-        <v>2001.803814082777</v>
+        <v>1900.182773532207</v>
       </c>
       <c r="U38" t="n">
-        <v>1744.861492513321</v>
+        <v>1643.240451962751</v>
       </c>
       <c r="V38" t="n">
-        <v>1660.51947495842</v>
+        <v>1293.402897299232</v>
       </c>
       <c r="W38" t="n">
-        <v>1660.51947495842</v>
+        <v>909.6425964344003</v>
       </c>
       <c r="X38" t="n">
-        <v>1259.876077127373</v>
+        <v>508.9991986033528</v>
       </c>
       <c r="Y38" t="n">
-        <v>858.939404075463</v>
+        <v>340.1317525528626</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>50.68470587174118</v>
       </c>
       <c r="J39" t="n">
-        <v>73.01235199677697</v>
+        <v>316.6807559714102</v>
       </c>
       <c r="K39" t="n">
-        <v>142.8265595332089</v>
+        <v>865.5229390586055</v>
       </c>
       <c r="L39" t="n">
-        <v>255.4610063421107</v>
+        <v>1007.973553578681</v>
       </c>
       <c r="M39" t="n">
-        <v>394.7396247542271</v>
+        <v>1147.252171990798</v>
       </c>
       <c r="N39" t="n">
-        <v>943.5818078414223</v>
+        <v>1296.052582186697</v>
       </c>
       <c r="O39" t="n">
-        <v>1452.156382188958</v>
+        <v>1423.176869940699</v>
       </c>
       <c r="P39" t="n">
-        <v>2000.998565276153</v>
+        <v>1517.375426509941</v>
       </c>
       <c r="Q39" t="n">
-        <v>2043.750531170832</v>
+        <v>1966.097549408394</v>
       </c>
       <c r="R39" t="n">
         <v>2043.750531170832</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>913.9110180126795</v>
+        <v>719.0655101620366</v>
       </c>
       <c r="C40" t="n">
-        <v>742.817645574396</v>
+        <v>547.9721377237531</v>
       </c>
       <c r="D40" t="n">
-        <v>583.323000897306</v>
+        <v>513.6092666270149</v>
       </c>
       <c r="E40" t="n">
-        <v>519.2862541876384</v>
+        <v>352.6984514953343</v>
       </c>
       <c r="F40" t="n">
-        <v>354.6551282982296</v>
+        <v>188.0673256059256</v>
       </c>
       <c r="G40" t="n">
         <v>188.0673256059256</v>
@@ -7332,13 +7332,13 @@
         <v>44.35088348179357</v>
       </c>
       <c r="J40" t="n">
-        <v>104.346216032691</v>
+        <v>104.3462160326911</v>
       </c>
       <c r="K40" t="n">
-        <v>334.3473503129694</v>
+        <v>334.3473503129695</v>
       </c>
       <c r="L40" t="n">
-        <v>690.7929468723877</v>
+        <v>690.7929468723878</v>
       </c>
       <c r="M40" t="n">
         <v>1081.853855541386</v>
@@ -7347,7 +7347,7 @@
         <v>1462.068988545299</v>
       </c>
       <c r="O40" t="n">
-        <v>1813.419743188237</v>
+        <v>1813.419743188238</v>
       </c>
       <c r="P40" t="n">
         <v>2097.63750913802</v>
@@ -7356,28 +7356,28 @@
         <v>2217.544174089678</v>
       </c>
       <c r="R40" t="n">
-        <v>2162.063838838958</v>
+        <v>2217.544174089678</v>
       </c>
       <c r="S40" t="n">
-        <v>2162.063838838958</v>
+        <v>2217.544174089678</v>
       </c>
       <c r="T40" t="n">
-        <v>2162.063838838958</v>
+        <v>1980.826494517396</v>
       </c>
       <c r="U40" t="n">
-        <v>1879.301832569563</v>
+        <v>1698.064488248001</v>
       </c>
       <c r="V40" t="n">
-        <v>1605.416087509085</v>
+        <v>1424.178743187523</v>
       </c>
       <c r="W40" t="n">
-        <v>1326.346423017959</v>
+        <v>1145.109078696398</v>
       </c>
       <c r="X40" t="n">
-        <v>1326.346423017959</v>
+        <v>906.765216556081</v>
       </c>
       <c r="Y40" t="n">
-        <v>1101.610724406724</v>
+        <v>906.765216556081</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>960.4577938174421</v>
+        <v>1697.097258667188</v>
       </c>
       <c r="C41" t="n">
-        <v>550.3332031307121</v>
+        <v>1286.972667980458</v>
       </c>
       <c r="D41" t="n">
-        <v>550.3332031307121</v>
+        <v>1286.972667980458</v>
       </c>
       <c r="E41" t="n">
-        <v>550.3332031307121</v>
+        <v>872.6324524973547</v>
       </c>
       <c r="F41" t="n">
-        <v>481.0068591493468</v>
+        <v>451.6020404510423</v>
       </c>
       <c r="G41" t="n">
-        <v>73.755702180098</v>
+        <v>44.35088348179357</v>
       </c>
       <c r="H41" t="n">
-        <v>73.755702180098</v>
+        <v>44.35088348179357</v>
       </c>
       <c r="I41" t="n">
         <v>44.35088348179357</v>
       </c>
       <c r="J41" t="n">
-        <v>136.2566680335435</v>
+        <v>421.410824915004</v>
       </c>
       <c r="K41" t="n">
-        <v>232.1686208148387</v>
+        <v>970.2530080021993</v>
       </c>
       <c r="L41" t="n">
-        <v>781.010803902034</v>
+        <v>1117.134702310553</v>
       </c>
       <c r="M41" t="n">
-        <v>1329.852986989229</v>
+        <v>1278.986505703131</v>
       </c>
       <c r="N41" t="n">
-        <v>1878.695170076425</v>
+        <v>1445.32583287888</v>
       </c>
       <c r="O41" t="n">
-        <v>2030.363899095275</v>
+        <v>1596.99456189773</v>
       </c>
       <c r="P41" t="n">
         <v>2145.836744984925</v>
@@ -7441,22 +7441,22 @@
         <v>2217.544174089678</v>
       </c>
       <c r="T41" t="n">
-        <v>2001.803814082777</v>
+        <v>2217.544174089678</v>
       </c>
       <c r="U41" t="n">
-        <v>1744.861492513321</v>
+        <v>2217.544174089678</v>
       </c>
       <c r="V41" t="n">
-        <v>1744.861492513321</v>
+        <v>2217.544174089678</v>
       </c>
       <c r="W41" t="n">
-        <v>1361.101191648489</v>
+        <v>2217.544174089678</v>
       </c>
       <c r="X41" t="n">
-        <v>960.4577938174421</v>
+        <v>2217.544174089678</v>
       </c>
       <c r="Y41" t="n">
-        <v>960.4577938174421</v>
+        <v>2107.318438331677</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>44.35088348179357</v>
       </c>
       <c r="I42" t="n">
-        <v>44.35088348179357</v>
+        <v>50.68470587174118</v>
       </c>
       <c r="J42" t="n">
-        <v>66.67852960682936</v>
+        <v>316.6807559714102</v>
       </c>
       <c r="K42" t="n">
-        <v>615.5207126940246</v>
+        <v>865.5229390586055</v>
       </c>
       <c r="L42" t="n">
-        <v>728.1551595029264</v>
+        <v>1007.973553578681</v>
       </c>
       <c r="M42" t="n">
-        <v>867.4337779150428</v>
+        <v>1147.252171990798</v>
       </c>
       <c r="N42" t="n">
-        <v>1016.234188110942</v>
+        <v>1296.052582186697</v>
       </c>
       <c r="O42" t="n">
-        <v>1500.829851703138</v>
+        <v>1423.176869940699</v>
       </c>
       <c r="P42" t="n">
-        <v>1595.028408272379</v>
+        <v>1517.375426509941</v>
       </c>
       <c r="Q42" t="n">
-        <v>2043.750531170832</v>
+        <v>1966.097549408394</v>
       </c>
       <c r="R42" t="n">
         <v>2043.750531170832</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>940.6174899275095</v>
+        <v>963.4888504956814</v>
       </c>
       <c r="C43" t="n">
-        <v>769.524117489226</v>
+        <v>792.3954780573979</v>
       </c>
       <c r="D43" t="n">
-        <v>610.029472812136</v>
+        <v>632.9008333803079</v>
       </c>
       <c r="E43" t="n">
-        <v>449.1186576804555</v>
+        <v>471.9900182486273</v>
       </c>
       <c r="F43" t="n">
-        <v>284.4875317910468</v>
+        <v>307.3588923592186</v>
       </c>
       <c r="G43" t="n">
-        <v>284.4875317910468</v>
+        <v>140.7710896669146</v>
       </c>
       <c r="H43" t="n">
-        <v>140.7710896669147</v>
+        <v>140.7710896669146</v>
       </c>
       <c r="I43" t="n">
-        <v>44.35088348179368</v>
+        <v>44.35088348179357</v>
       </c>
       <c r="J43" t="n">
-        <v>104.3462160326912</v>
+        <v>104.346216032691</v>
       </c>
       <c r="K43" t="n">
-        <v>334.3473503129696</v>
+        <v>334.3473503129694</v>
       </c>
       <c r="L43" t="n">
-        <v>690.7929468723879</v>
+        <v>690.7929468723877</v>
       </c>
       <c r="M43" t="n">
         <v>1081.853855541386</v>
@@ -7584,7 +7584,7 @@
         <v>1462.068988545299</v>
       </c>
       <c r="O43" t="n">
-        <v>1813.419743188238</v>
+        <v>1813.419743188237</v>
       </c>
       <c r="P43" t="n">
         <v>2097.63750913802</v>
@@ -7593,28 +7593,28 @@
         <v>2217.544174089678</v>
       </c>
       <c r="R43" t="n">
-        <v>2162.063838838958</v>
+        <v>2217.544174089678</v>
       </c>
       <c r="S43" t="n">
-        <v>2162.063838838958</v>
+        <v>2217.544174089678</v>
       </c>
       <c r="T43" t="n">
-        <v>1925.346159266675</v>
+        <v>2176.099788401798</v>
       </c>
       <c r="U43" t="n">
-        <v>1642.584152997281</v>
+        <v>1893.337782132403</v>
       </c>
       <c r="V43" t="n">
-        <v>1368.698407936803</v>
+        <v>1893.337782132403</v>
       </c>
       <c r="W43" t="n">
-        <v>1089.628743445677</v>
+        <v>1614.268117641278</v>
       </c>
       <c r="X43" t="n">
-        <v>1089.628743445677</v>
+        <v>1375.924255500961</v>
       </c>
       <c r="Y43" t="n">
-        <v>940.6174899275095</v>
+        <v>1151.188556889726</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1550.345218868688</v>
+        <v>451.6020404510423</v>
       </c>
       <c r="C44" t="n">
-        <v>1140.220628181958</v>
+        <v>451.6020404510423</v>
       </c>
       <c r="D44" t="n">
-        <v>1140.220628181958</v>
+        <v>451.6020404510423</v>
       </c>
       <c r="E44" t="n">
-        <v>725.8804126988548</v>
+        <v>451.6020404510423</v>
       </c>
       <c r="F44" t="n">
-        <v>481.0068591493468</v>
+        <v>451.6020404510423</v>
       </c>
       <c r="G44" t="n">
-        <v>73.755702180098</v>
+        <v>44.35088348179357</v>
       </c>
       <c r="H44" t="n">
-        <v>73.755702180098</v>
+        <v>44.35088348179357</v>
       </c>
       <c r="I44" t="n">
         <v>44.35088348179357</v>
@@ -7651,25 +7651,25 @@
         <v>94.63499802727489</v>
       </c>
       <c r="K44" t="n">
-        <v>190.5469508085702</v>
+        <v>643.4771811144701</v>
       </c>
       <c r="L44" t="n">
-        <v>739.3891338957654</v>
+        <v>1192.319364201665</v>
       </c>
       <c r="M44" t="n">
-        <v>1288.231316982961</v>
+        <v>1712.355842900676</v>
       </c>
       <c r="N44" t="n">
-        <v>1454.570644158709</v>
+        <v>1878.695170076425</v>
       </c>
       <c r="O44" t="n">
-        <v>1903.368232019134</v>
+        <v>2030.363899095275</v>
       </c>
       <c r="P44" t="n">
-        <v>2018.841077908784</v>
+        <v>2145.836744984925</v>
       </c>
       <c r="Q44" t="n">
-        <v>2086.046413815597</v>
+        <v>2213.042080891738</v>
       </c>
       <c r="R44" t="n">
         <v>2217.544174089678</v>
@@ -7681,19 +7681,19 @@
         <v>1900.182773532207</v>
       </c>
       <c r="U44" t="n">
-        <v>1900.182773532207</v>
+        <v>1643.240451962751</v>
       </c>
       <c r="V44" t="n">
-        <v>1550.345218868688</v>
+        <v>1643.240451962751</v>
       </c>
       <c r="W44" t="n">
-        <v>1550.345218868688</v>
+        <v>1643.240451962751</v>
       </c>
       <c r="X44" t="n">
-        <v>1550.345218868688</v>
+        <v>1242.597054131704</v>
       </c>
       <c r="Y44" t="n">
-        <v>1550.345218868688</v>
+        <v>861.8232201155317</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>867.8034942413345</v>
+        <v>694.0098513224891</v>
       </c>
       <c r="C45" t="n">
-        <v>733.8084229902802</v>
+        <v>560.0147800714349</v>
       </c>
       <c r="D45" t="n">
-        <v>616.9112652096726</v>
+        <v>443.1176222908273</v>
       </c>
       <c r="E45" t="n">
-        <v>496.4184492020006</v>
+        <v>322.6248062831553</v>
       </c>
       <c r="F45" t="n">
-        <v>387.4585693845052</v>
+        <v>213.6649264656599</v>
       </c>
       <c r="G45" t="n">
-        <v>281.2587893934389</v>
+        <v>107.4651464745937</v>
       </c>
       <c r="H45" t="n">
-        <v>218.1445264006388</v>
+        <v>44.35088348179357</v>
       </c>
       <c r="I45" t="n">
-        <v>218.1445264006388</v>
+        <v>50.68470587174118</v>
       </c>
       <c r="J45" t="n">
-        <v>240.4721725256746</v>
+        <v>316.6807559714102</v>
       </c>
       <c r="K45" t="n">
-        <v>310.2863800621066</v>
+        <v>865.5229390586055</v>
       </c>
       <c r="L45" t="n">
-        <v>837.7022829267729</v>
+        <v>978.1573858675073</v>
       </c>
       <c r="M45" t="n">
-        <v>976.9809013388893</v>
+        <v>1117.436004279624</v>
       </c>
       <c r="N45" t="n">
-        <v>1125.781311534789</v>
+        <v>1266.236414475523</v>
       </c>
       <c r="O45" t="n">
-        <v>1674.623494621984</v>
+        <v>1393.360702229525</v>
       </c>
       <c r="P45" t="n">
-        <v>1768.822051191225</v>
+        <v>1517.375426509941</v>
       </c>
       <c r="Q45" t="n">
-        <v>2217.544174089678</v>
+        <v>1966.097549408394</v>
       </c>
       <c r="R45" t="n">
-        <v>2217.544174089678</v>
+        <v>2043.750531170832</v>
       </c>
       <c r="S45" t="n">
-        <v>2124.234247368943</v>
+        <v>1950.440604450098</v>
       </c>
       <c r="T45" t="n">
-        <v>1968.077978934604</v>
+        <v>1794.284336015759</v>
       </c>
       <c r="U45" t="n">
-        <v>1770.779163644836</v>
+        <v>1596.98552072599</v>
       </c>
       <c r="V45" t="n">
-        <v>1557.06763663787</v>
+        <v>1383.273993719024</v>
       </c>
       <c r="W45" t="n">
-        <v>1343.834468374198</v>
+        <v>1170.040825455353</v>
       </c>
       <c r="X45" t="n">
-        <v>1167.508486513091</v>
+        <v>993.7148435942457</v>
       </c>
       <c r="Y45" t="n">
-        <v>1008.106526876921</v>
+        <v>834.3128839580758</v>
       </c>
     </row>
     <row r="46">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>451.7045230157308</v>
+        <v>936.11192018153</v>
       </c>
       <c r="C46" t="n">
-        <v>451.7045230157308</v>
+        <v>936.11192018153</v>
       </c>
       <c r="D46" t="n">
-        <v>445.3983469227273</v>
+        <v>776.6172755044399</v>
       </c>
       <c r="E46" t="n">
-        <v>284.4875317910468</v>
+        <v>615.7064603727594</v>
       </c>
       <c r="F46" t="n">
-        <v>284.4875317910468</v>
+        <v>451.0753344833506</v>
       </c>
       <c r="G46" t="n">
-        <v>284.4875317910468</v>
+        <v>284.4875317910466</v>
       </c>
       <c r="H46" t="n">
-        <v>140.7710896669147</v>
+        <v>140.7710896669146</v>
       </c>
       <c r="I46" t="n">
-        <v>44.35088348179368</v>
+        <v>44.35088348179357</v>
       </c>
       <c r="J46" t="n">
-        <v>104.3462160326912</v>
+        <v>104.3462160326911</v>
       </c>
       <c r="K46" t="n">
-        <v>334.3473503129696</v>
+        <v>334.3473503129695</v>
       </c>
       <c r="L46" t="n">
-        <v>690.7929468723879</v>
+        <v>690.7929468723878</v>
       </c>
       <c r="M46" t="n">
         <v>1081.853855541386</v>
@@ -7830,28 +7830,28 @@
         <v>2217.544174089678</v>
       </c>
       <c r="R46" t="n">
-        <v>2162.063838838958</v>
+        <v>2217.544174089678</v>
       </c>
       <c r="S46" t="n">
-        <v>1987.219179160563</v>
+        <v>2042.699514411284</v>
       </c>
       <c r="T46" t="n">
-        <v>1750.501499588281</v>
+        <v>1805.981834839002</v>
       </c>
       <c r="U46" t="n">
-        <v>1467.739493318886</v>
+        <v>1523.219828569607</v>
       </c>
       <c r="V46" t="n">
-        <v>1193.853748258408</v>
+        <v>1453.525446812972</v>
       </c>
       <c r="W46" t="n">
-        <v>914.7840837672827</v>
+        <v>1174.455782321847</v>
       </c>
       <c r="X46" t="n">
-        <v>676.4402216269661</v>
+        <v>936.11192018153</v>
       </c>
       <c r="Y46" t="n">
-        <v>451.7045230157308</v>
+        <v>936.11192018153</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>479.289169423434</v>
+        <v>165.8061104867393</v>
       </c>
       <c r="L2" t="n">
         <v>485.6381778130617</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
@@ -7996,10 +7996,10 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>236.0668064756412</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8063,22 +8063,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>447.7170634886343</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>240.8046361201516</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>206.4630870275083</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8221,19 +8221,19 @@
         <v>479.289169423434</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>278.8691500349403</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>276.2960427287148</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P5" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8300,25 +8300,25 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L6" t="n">
-        <v>446.2673035610659</v>
+        <v>400.6454545179966</v>
       </c>
       <c r="M6" t="n">
-        <v>78.57506765631931</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P6" t="n">
         <v>444.4124147530206</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>82.34125626042834</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>479.289169423434</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M8" t="n">
         <v>93.29022445704545</v>
@@ -8467,16 +8467,16 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>483.8021430311011</v>
+        <v>277.0331152529795</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>273.9673852220582</v>
       </c>
       <c r="N9" t="n">
-        <v>397.7243241008975</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>447.9042587502169</v>
@@ -8552,10 +8552,10 @@
         <v>444.4124147530206</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>457.5052831372729</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>401.1853071397427</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>379.7181133662702</v>
+        <v>365.6147974672019</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>483.8666419704682</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>404.0825988800972</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>282.2353088871564</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>30.11734112239793</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8859,7 +8859,7 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N13" t="n">
-        <v>335.3881832803894</v>
+        <v>335.3881832803902</v>
       </c>
       <c r="O13" t="n">
         <v>318.2573327462026</v>
@@ -8868,7 +8868,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.5494547533711</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,22 +8929,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>102.9938756303576</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>390.8993734289061</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>56.14644380921857</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>437.7468052500454</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
@@ -9005,13 +9005,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>284.9708913022195</v>
+        <v>483.8666419704682</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>30.11734112239787</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>425.9776720537301</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>459.235986381772</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>457.5052831372729</v>
       </c>
       <c r="L17" t="n">
-        <v>46.70394732357215</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>390.8993734289061</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>386.3665211226736</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>322.5483760980628</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>430.8387357943514</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>413.7005703788677</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>404.0825988800972</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>54.74799671109392</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>459.235986381772</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>10.4209441561037</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>419.1007181762828</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>56.14644380921857</v>
       </c>
       <c r="P20" t="n">
-        <v>276.5906721068071</v>
+        <v>437.7468052500454</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>13.36765804015129</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9488,10 +9488,10 @@
         <v>440.6138750285795</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>319.4998090487646</v>
       </c>
       <c r="N21" t="n">
-        <v>404.0825988800972</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>10.6733100342523</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>472.6882752302321</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>815.2746908024792</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>14.33323082228316</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>13.36765804015129</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>240.9060354129919</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>407.8187061046905</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>321.687355621698</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>621.7385469094756</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>583.3339819484854</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>550.5997848948762</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>601.9800690222478</v>
+        <v>555.3550908569341</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>13.36765804015129</v>
+        <v>17.51329887835058</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>144.8721600860734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>410.0708656603775</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>621.7385469094754</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10123,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>178.5901180125676</v>
       </c>
       <c r="O29" t="n">
-        <v>565.4185709119452</v>
+        <v>565.4185709119454</v>
       </c>
       <c r="P29" t="n">
-        <v>601.9800690222479</v>
+        <v>601.980069022248</v>
       </c>
       <c r="Q29" t="n">
-        <v>99.5688844632879</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>19.76545843403778</v>
+        <v>17.51329887835058</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>191.7978214250446</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>568.3158626522996</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>621.7385469094756</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>583.3339819484854</v>
       </c>
       <c r="M32" t="n">
-        <v>555.1326372011085</v>
+        <v>133.0337575541194</v>
       </c>
       <c r="N32" t="n">
-        <v>273.2383206756499</v>
+        <v>550.5997848948764</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>601.9800690222478</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>13.36765804015129</v>
+        <v>17.51329887835058</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,10 +10439,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>176.3005486452982</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>590.2109358259327</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>36.41801361273474</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>386.3665211226735</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>401.1853071397426</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>365.6147974672015</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,31 +10661,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>13.36765804015129</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>483.8666419704681</v>
       </c>
       <c r="L36" t="n">
-        <v>440.6138750285794</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>404.0825988800971</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>85.75617523845389</v>
+        <v>459.2359863817719</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.0819213854817</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10825,22 +10825,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>457.5052831372728</v>
       </c>
       <c r="L38" t="n">
-        <v>419.1007181762827</v>
+        <v>13.08002244007872</v>
       </c>
       <c r="M38" t="n">
-        <v>102.8648715284407</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>386.3665211226735</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>437.7468052500453</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>483.8666419704681</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>30.11734112239799</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>404.0825988800971</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>385.3033197914474</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>459.2359863817719</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>10.4209441561037</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>42.04209091542279</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>457.5052831372728</v>
       </c>
       <c r="L41" t="n">
-        <v>419.1007181762827</v>
+        <v>13.08002244007872</v>
       </c>
       <c r="M41" t="n">
-        <v>390.899373428906</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>386.3665211226735</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>437.7468052500453</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>13.36765804015129</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>483.8666419704681</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>30.11734112239799</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>361.0821978163569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>10.4209441561037</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>457.5052831372728</v>
       </c>
       <c r="L44" t="n">
         <v>419.1007181762827</v>
       </c>
       <c r="M44" t="n">
-        <v>390.8993734289059</v>
+        <v>361.8027023297294</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>300.1301604460348</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>13.36765804015129</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>483.8666419704681</v>
       </c>
       <c r="L45" t="n">
-        <v>418.9711677330956</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>425.97767205373</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>30.11734112239793</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>10.4209441561037</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,16 +23260,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>400.8008300336573</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>29.11077051132138</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>254.3728983537618</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>311.402102712129</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.2792777028907</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>95.45600412326982</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>234.3505027765594</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>141.9692033175494</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.684896591428611</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>328.3385268464195</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>403.1786453995563</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>292.8230603803583</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>29.11077051132138</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.5829564068317</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.3728983537618</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.1356867453739</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>121.5619949904754</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.2792777028907</v>
       </c>
       <c r="I16" t="n">
-        <v>95.45600412326982</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92553189821342</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>234.3505027765594</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>80.92663724960312</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>216.6764671573205</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>29.11077051132138</v>
+        <v>14.11862504006218</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.3728983537618</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23898,19 +23898,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>114.9098595359213</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.9219246653809</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.2792777028907</v>
       </c>
       <c r="I19" t="n">
-        <v>95.45600412326982</v>
+        <v>36.74476256950653</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92553189821342</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9343862067008</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>403.1786453995563</v>
+        <v>342.124867069242</v>
       </c>
       <c r="H20" t="n">
         <v>292.8230603803583</v>
@@ -24025,10 +24025,10 @@
         <v>213.5829564068317</v>
       </c>
       <c r="U20" t="n">
-        <v>149.258664328536</v>
+        <v>254.3728983537618</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>106.7662378372507</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.9219246653809</v>
       </c>
       <c r="H22" t="n">
         <v>142.2792777028907</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92553189821342</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>173.09621308161</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>204.0895197667806</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>144.1317726703142</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.619408867941161</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>29.11077051132138</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>100.6048301450641</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>92.46183727506202</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.2792777028907</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92553189821342</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>173.09621308161</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>234.3505027765594</v>
       </c>
       <c r="U25" t="n">
-        <v>99.0557843145032</v>
+        <v>279.9343862067008</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>225.4145475656024</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>403.1786453995563</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>292.8230603803583</v>
       </c>
       <c r="I26" t="n">
-        <v>29.11077051132138</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>18.69419662519851</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>164.9219246653809</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.2792777028907</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>95.45600412326982</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92553189821342</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.09621308161</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>206.0266298016469</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>151.6565838982452</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,16 +24682,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.385532699934515</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>403.1786453995563</v>
@@ -24700,7 +24700,7 @@
         <v>292.8230603803583</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>29.11077051132138</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>213.5829564068317</v>
+        <v>196.0655639146648</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>16.14359731970279</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.9219246653809</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92553189821342</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>173.09621308161</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>176.9863587557704</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,16 +24919,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>124.9053405085199</v>
       </c>
       <c r="E32" t="n">
-        <v>47.92230382543477</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>292.8230603803583</v>
       </c>
       <c r="I32" t="n">
-        <v>29.11077051132138</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25083,10 +25083,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>107.9289914372375</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92553189821342</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>116.8469695707874</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>403.1786453995563</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>292.8230603803583</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>29.11077051132138</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>100.6048301450641</v>
       </c>
       <c r="T35" t="n">
         <v>213.5829564068317</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3728983537618</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>234.4563459247773</v>
       </c>
       <c r="W35" t="n">
-        <v>65.08753738959592</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9219246653809</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.2792777028907</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>95.45600412326982</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.92553189821342</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>173.09621308161</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>211.1117462018425</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>183.8448613094511</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25393,10 +25393,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -25408,7 +25408,7 @@
         <v>403.1786453995563</v>
       </c>
       <c r="H38" t="n">
-        <v>292.8230603803583</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>29.11077051132138</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>100.6048301450641</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>262.8405817375325</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>229.7485347314055</v>
       </c>
     </row>
     <row r="39">
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>123.8804558445482</v>
       </c>
       <c r="E40" t="n">
-        <v>95.90532773779283</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.9219246653809</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92553189821342</v>
       </c>
       <c r="S40" t="n">
         <v>173.09621308161</v>
       </c>
       <c r="T40" t="n">
-        <v>234.3505027765594</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,10 +25636,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>348.1870273842976</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>292.8230603803583</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>29.11077051132138</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>100.6048301450641</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>213.5829564068317</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3728983537618</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>287.8038279209702</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.9219246653809</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.2792777028907</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>54.92553189821342</v>
       </c>
       <c r="S43" t="n">
         <v>173.09621308161</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>193.320560945558</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>74.96720064213716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>174.3952899118364</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>292.8230603803583</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.11077051132138</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3728983537618</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>19.96121064538073</v>
       </c>
     </row>
     <row r="45">
@@ -26028,16 +26028,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>151.6565838982455</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.9219246653809</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>54.92553189821342</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>202.1494496708048</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>497785.7491634277</v>
+        <v>497785.7491634276</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>497785.7491634276</v>
+        <v>497785.7491634277</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>565265.2582104703</v>
+        <v>565265.2582104704</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>565265.2582104703</v>
+        <v>565265.2582104704</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>565265.2582104706</v>
+        <v>565265.2582104704</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>497785.7491634276</v>
+        <v>497785.7491634277</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>497785.7491634276</v>
+        <v>497785.7491634277</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>497785.7491634277</v>
+        <v>497785.7491634276</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>439782.4611876337</v>
+        <v>439782.4611876338</v>
       </c>
       <c r="C2" t="n">
         <v>439782.4611876337</v>
@@ -26322,16 +26322,16 @@
         <v>439782.4611876337</v>
       </c>
       <c r="E2" t="n">
-        <v>281101.3587436597</v>
+        <v>281101.3587436599</v>
       </c>
       <c r="F2" t="n">
-        <v>281101.3587436598</v>
+        <v>281101.3587436599</v>
       </c>
       <c r="G2" t="n">
-        <v>281101.3587436597</v>
+        <v>281101.3587436599</v>
       </c>
       <c r="H2" t="n">
-        <v>281101.3587436597</v>
+        <v>281101.3587436599</v>
       </c>
       <c r="I2" t="n">
         <v>396699.3774929779</v>
@@ -26340,19 +26340,19 @@
         <v>315346.5208046939</v>
       </c>
       <c r="K2" t="n">
-        <v>315346.5208046939</v>
+        <v>315346.5208046941</v>
       </c>
       <c r="L2" t="n">
         <v>315346.5208046937</v>
       </c>
       <c r="M2" t="n">
-        <v>281101.3587436596</v>
+        <v>281101.3587436599</v>
       </c>
       <c r="N2" t="n">
         <v>281101.3587436598</v>
       </c>
       <c r="O2" t="n">
-        <v>281101.3587436596</v>
+        <v>281101.3587436598</v>
       </c>
       <c r="P2" t="n">
         <v>281101.3587436597</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>271307.6351245797</v>
+        <v>271307.6351245798</v>
       </c>
       <c r="C4" t="n">
         <v>271307.6351245798</v>
       </c>
       <c r="D4" t="n">
-        <v>271307.6351245797</v>
+        <v>271307.6351245798</v>
       </c>
       <c r="E4" t="n">
-        <v>50575.37923324259</v>
+        <v>50575.37923324258</v>
       </c>
       <c r="F4" t="n">
+        <v>50575.37923324258</v>
+      </c>
+      <c r="G4" t="n">
         <v>50575.37923324257</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50575.37923324259</v>
       </c>
       <c r="H4" t="n">
         <v>50575.37923324258</v>
       </c>
       <c r="I4" t="n">
-        <v>94520.85980091478</v>
+        <v>94520.8598009148</v>
       </c>
       <c r="J4" t="n">
-        <v>63593.94235544866</v>
+        <v>63593.94235544868</v>
       </c>
       <c r="K4" t="n">
-        <v>63593.94235544866</v>
+        <v>63593.94235544867</v>
       </c>
       <c r="L4" t="n">
-        <v>63593.94235544866</v>
+        <v>63593.94235544867</v>
       </c>
       <c r="M4" t="n">
         <v>50575.37923324257</v>
       </c>
       <c r="N4" t="n">
-        <v>50575.37923324257</v>
+        <v>50575.37923324256</v>
       </c>
       <c r="O4" t="n">
         <v>50575.37923324256</v>
       </c>
       <c r="P4" t="n">
-        <v>50575.37923324257</v>
+        <v>50575.37923324256</v>
       </c>
     </row>
     <row r="5">
@@ -26490,16 +26490,16 @@
         <v>41636.66172144189</v>
       </c>
       <c r="I5" t="n">
-        <v>75343.33316760499</v>
+        <v>75343.333167605</v>
       </c>
       <c r="J5" t="n">
-        <v>51622.0441587918</v>
+        <v>51622.04415879181</v>
       </c>
       <c r="K5" t="n">
-        <v>51622.0441587918</v>
+        <v>51622.04415879181</v>
       </c>
       <c r="L5" t="n">
-        <v>51622.0441587918</v>
+        <v>51622.04415879181</v>
       </c>
       <c r="M5" t="n">
         <v>41636.66172144188</v>
@@ -26524,46 +26524,46 @@
         <v>-19623.2329539911</v>
       </c>
       <c r="C6" t="n">
+        <v>111125.9370542408</v>
+      </c>
+      <c r="D6" t="n">
         <v>111125.9370542407</v>
       </c>
-      <c r="D6" t="n">
-        <v>111125.9370542408</v>
-      </c>
       <c r="E6" t="n">
-        <v>-152393.8178402159</v>
+        <v>-152981.5256270453</v>
       </c>
       <c r="F6" t="n">
-        <v>188889.3177889753</v>
+        <v>188301.6100021458</v>
       </c>
       <c r="G6" t="n">
-        <v>188889.3177889752</v>
+        <v>188301.6100021459</v>
       </c>
       <c r="H6" t="n">
-        <v>188889.3177889753</v>
+        <v>188301.6100021459</v>
       </c>
       <c r="I6" t="n">
-        <v>79412.29344493285</v>
+        <v>79252.72646828595</v>
       </c>
       <c r="J6" t="n">
-        <v>200130.5342904535</v>
+        <v>199669.6604371833</v>
       </c>
       <c r="K6" t="n">
-        <v>200130.5342904534</v>
+        <v>199669.6604371835</v>
       </c>
       <c r="L6" t="n">
-        <v>200130.5342904532</v>
+        <v>199669.6604371831</v>
       </c>
       <c r="M6" t="n">
-        <v>188889.3177889752</v>
+        <v>188301.610002146</v>
       </c>
       <c r="N6" t="n">
-        <v>188889.3177889754</v>
+        <v>188301.6100021458</v>
       </c>
       <c r="O6" t="n">
-        <v>188889.3177889751</v>
+        <v>188301.6100021458</v>
       </c>
       <c r="P6" t="n">
-        <v>188889.3177889753</v>
+        <v>188301.6100021458</v>
       </c>
     </row>
   </sheetData>
@@ -26813,13 +26813,13 @@
         <v>1108.772087044839</v>
       </c>
       <c r="J4" t="n">
-        <v>718.6193072946221</v>
+        <v>718.6193072946223</v>
       </c>
       <c r="K4" t="n">
-        <v>718.6193072946221</v>
+        <v>718.6193072946223</v>
       </c>
       <c r="L4" t="n">
-        <v>718.6193072946221</v>
+        <v>718.6193072946223</v>
       </c>
       <c r="M4" t="n">
         <v>554.3860435224195</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>554.3860435224194</v>
+        <v>554.3860435224195</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>73.08850339999594</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>34.94742612136245</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27460,13 +27460,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27517,16 +27517,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>89.24414791942223</v>
       </c>
       <c r="Y3" t="n">
-        <v>83.02653722973875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>30.99194196367532</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>64.54869894515676</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27624,10 +27624,10 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>303.769308773607</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>30.78184667961006</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27700,10 +27700,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27712,7 +27712,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27748,19 +27748,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>32.30085930981929</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>158.7936483093277</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,22 +27779,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>89.73159075659419</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>40.68772050506252</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>15.87056502964566</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>192.6557801261314</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>14.48822151587922</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.00769435896233972</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27934,16 +27934,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>48.75569868985322</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27985,13 +27985,13 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>51.88353852249338</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28022,7 +28022,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -28031,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>12.6446558376457</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>86.11522480836743</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -34701,13 +34701,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>390.1527797502169</v>
+        <v>76.66972081352215</v>
       </c>
       <c r="L2" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>142.4174431947571</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>186.5450011173479</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>149.7704685226696</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34941,19 +34941,19 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>183.3837519720955</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>183.3837519720955</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35020,25 +35020,25 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L6" t="n">
+        <v>344.5309307071475</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="M6" t="n">
-        <v>21.01078391790188</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>9.017664927120396</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>390.1527797502169</v>
+        <v>183.3837519720954</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>216.4031014836407</v>
       </c>
       <c r="N9" t="n">
-        <v>344.5309307071475</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>390.1527797502169</v>
@@ -35272,10 +35272,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>50.79203489442558</v>
+        <v>380.8686277103136</v>
       </c>
       <c r="K11" t="n">
-        <v>554.3860435224196</v>
+        <v>96.88076038514673</v>
       </c>
       <c r="L11" t="n">
         <v>135.2853253461369</v>
@@ -35424,16 +35424,16 @@
         <v>168.019522399746</v>
       </c>
       <c r="O11" t="n">
-        <v>554.3860435224196</v>
+        <v>153.2007363826769</v>
       </c>
       <c r="P11" t="n">
-        <v>496.3573516386445</v>
+        <v>482.2540357395762</v>
       </c>
       <c r="Q11" t="n">
-        <v>67.88417768364926</v>
+        <v>482.3230394517831</v>
       </c>
       <c r="R11" t="n">
-        <v>4.547568886808065</v>
+        <v>132.8260204788698</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>6.397800393886481</v>
       </c>
       <c r="J12" t="n">
-        <v>22.55317790407656</v>
+        <v>268.6828788885546</v>
       </c>
       <c r="K12" t="n">
         <v>554.3860435224196</v>
@@ -35500,16 +35500,16 @@
         <v>140.6854731435519</v>
       </c>
       <c r="N12" t="n">
-        <v>554.3860435224196</v>
+        <v>150.3034446423224</v>
       </c>
       <c r="O12" t="n">
-        <v>410.6436803558459</v>
+        <v>128.4083714686895</v>
       </c>
       <c r="P12" t="n">
-        <v>95.15005714064759</v>
+        <v>125.2673982630455</v>
       </c>
       <c r="Q12" t="n">
-        <v>43.18380393401947</v>
+        <v>453.2546695943969</v>
       </c>
       <c r="R12" t="n">
         <v>78.43735531559453</v>
@@ -35579,7 +35579,7 @@
         <v>395.0110188575737</v>
       </c>
       <c r="N13" t="n">
-        <v>384.0556899029428</v>
+        <v>384.0556899029436</v>
       </c>
       <c r="O13" t="n">
         <v>354.8997521645842</v>
@@ -35588,7 +35588,7 @@
         <v>287.0886524745274</v>
       </c>
       <c r="Q13" t="n">
-        <v>121.1178433855141</v>
+        <v>121.1178433855139</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>380.8686277103136</v>
       </c>
       <c r="K14" t="n">
-        <v>199.8746360155043</v>
+        <v>96.88076038514673</v>
       </c>
       <c r="L14" t="n">
         <v>135.2853253461369</v>
       </c>
       <c r="M14" t="n">
-        <v>554.3860435224196</v>
+        <v>163.4866700935136</v>
       </c>
       <c r="N14" t="n">
         <v>168.019522399746</v>
       </c>
       <c r="O14" t="n">
-        <v>153.2007363826769</v>
+        <v>209.3471801918955</v>
       </c>
       <c r="P14" t="n">
-        <v>116.6392382723742</v>
+        <v>554.3860435224196</v>
       </c>
       <c r="Q14" t="n">
         <v>482.3230394517831</v>
@@ -35725,13 +35725,13 @@
         <v>6.397800393886481</v>
       </c>
       <c r="J15" t="n">
-        <v>22.55317790407656</v>
+        <v>268.6828788885546</v>
       </c>
       <c r="K15" t="n">
-        <v>355.4902928541709</v>
+        <v>554.3860435224196</v>
       </c>
       <c r="L15" t="n">
-        <v>113.7721684938402</v>
+        <v>143.889509616238</v>
       </c>
       <c r="M15" t="n">
         <v>140.6854731435519</v>
@@ -35740,13 +35740,13 @@
         <v>150.3034446423224</v>
       </c>
       <c r="O15" t="n">
-        <v>554.3860435224196</v>
+        <v>128.4083714686895</v>
       </c>
       <c r="P15" t="n">
-        <v>554.3860435224196</v>
+        <v>95.15005714064759</v>
       </c>
       <c r="Q15" t="n">
-        <v>43.18380393401947</v>
+        <v>453.2546695943969</v>
       </c>
       <c r="R15" t="n">
         <v>78.43735531559453</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>50.79203489442558</v>
+        <v>380.8686277103136</v>
       </c>
       <c r="K17" t="n">
-        <v>96.88076038514673</v>
+        <v>554.3860435224196</v>
       </c>
       <c r="L17" t="n">
-        <v>181.989272669709</v>
+        <v>135.2853253461369</v>
       </c>
       <c r="M17" t="n">
-        <v>554.3860435224196</v>
+        <v>163.4866700935136</v>
       </c>
       <c r="N17" t="n">
-        <v>554.3860435224196</v>
+        <v>168.019522399746</v>
       </c>
       <c r="O17" t="n">
         <v>153.2007363826769</v>
@@ -35904,10 +35904,10 @@
         <v>116.6392382723742</v>
       </c>
       <c r="Q17" t="n">
-        <v>482.3230394517831</v>
+        <v>390.4325537817121</v>
       </c>
       <c r="R17" t="n">
-        <v>4.547568886808065</v>
+        <v>132.8260204788698</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>6.397800393886481</v>
       </c>
       <c r="J18" t="n">
-        <v>22.55317790407656</v>
+        <v>268.6828788885546</v>
       </c>
       <c r="K18" t="n">
-        <v>501.3581373463028</v>
+        <v>70.51940155195146</v>
       </c>
       <c r="L18" t="n">
         <v>113.7721684938402</v>
       </c>
       <c r="M18" t="n">
+        <v>140.6854731435519</v>
+      </c>
+      <c r="N18" t="n">
+        <v>150.3034446423224</v>
+      </c>
+      <c r="O18" t="n">
+        <v>183.1563681797834</v>
+      </c>
+      <c r="P18" t="n">
         <v>554.3860435224196</v>
       </c>
-      <c r="N18" t="n">
-        <v>554.3860435224196</v>
-      </c>
-      <c r="O18" t="n">
-        <v>128.4083714686895</v>
-      </c>
-      <c r="P18" t="n">
-        <v>95.15005714064759</v>
-      </c>
       <c r="Q18" t="n">
-        <v>43.18380393401947</v>
+        <v>453.2546695943969</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>78.43735531559453</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>50.79203489442558</v>
+        <v>380.8686277103136</v>
       </c>
       <c r="K20" t="n">
         <v>96.88076038514673</v>
       </c>
       <c r="L20" t="n">
-        <v>554.3860435224196</v>
+        <v>135.2853253461369</v>
       </c>
       <c r="M20" t="n">
         <v>163.4866700935136</v>
@@ -36135,16 +36135,16 @@
         <v>168.019522399746</v>
       </c>
       <c r="O20" t="n">
-        <v>153.2007363826769</v>
+        <v>209.3471801918955</v>
       </c>
       <c r="P20" t="n">
-        <v>393.2299103791813</v>
+        <v>554.3860435224196</v>
       </c>
       <c r="Q20" t="n">
         <v>482.3230394517831</v>
       </c>
       <c r="R20" t="n">
-        <v>132.8260204788698</v>
+        <v>4.547568886808065</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6.397800393886481</v>
       </c>
       <c r="J21" t="n">
         <v>22.55317790407656</v>
@@ -36208,10 +36208,10 @@
         <v>554.3860435224196</v>
       </c>
       <c r="M21" t="n">
-        <v>140.6854731435519</v>
+        <v>460.1852821923165</v>
       </c>
       <c r="N21" t="n">
-        <v>554.3860435224196</v>
+        <v>150.3034446423224</v>
       </c>
       <c r="O21" t="n">
         <v>128.4083714686895</v>
@@ -36223,7 +36223,7 @@
         <v>453.2546695943969</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2523658781485963</v>
+        <v>78.43735531559453</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>50.79203489442558</v>
+        <v>380.8686277103136</v>
       </c>
       <c r="K23" t="n">
-        <v>569.5690356153789</v>
+        <v>96.88076038514673</v>
       </c>
       <c r="L23" t="n">
         <v>950.560016148616</v>
@@ -36375,13 +36375,13 @@
         <v>153.2007363826769</v>
       </c>
       <c r="P23" t="n">
-        <v>116.6392382723742</v>
+        <v>130.9724690946574</v>
       </c>
       <c r="Q23" t="n">
         <v>482.3230394517831</v>
       </c>
       <c r="R23" t="n">
-        <v>4.547568886808065</v>
+        <v>132.8260204788698</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.397800393886481</v>
       </c>
       <c r="J24" t="n">
-        <v>22.55317790407656</v>
+        <v>268.6828788885546</v>
       </c>
       <c r="K24" t="n">
-        <v>70.51940155195146</v>
+        <v>586.7555442005049</v>
       </c>
       <c r="L24" t="n">
-        <v>354.678203906832</v>
+        <v>113.7721684938402</v>
       </c>
       <c r="M24" t="n">
         <v>140.6854731435519</v>
       </c>
       <c r="N24" t="n">
-        <v>1085.979759360939</v>
+        <v>150.3034446423224</v>
       </c>
       <c r="O24" t="n">
         <v>128.4083714686895</v>
@@ -36457,7 +36457,7 @@
         <v>95.15005714064759</v>
       </c>
       <c r="Q24" t="n">
-        <v>43.18380393401947</v>
+        <v>451.0025100387099</v>
       </c>
       <c r="R24" t="n">
         <v>78.43735531559453</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>372.4793905161236</v>
+        <v>50.79203489442558</v>
       </c>
       <c r="K26" t="n">
-        <v>96.88076038514673</v>
+        <v>718.6193072946223</v>
       </c>
       <c r="L26" t="n">
-        <v>135.2853253461369</v>
+        <v>718.6193072946223</v>
       </c>
       <c r="M26" t="n">
         <v>163.4866700935136</v>
       </c>
       <c r="N26" t="n">
-        <v>718.6193072946221</v>
+        <v>168.019522399746</v>
       </c>
       <c r="O26" t="n">
         <v>153.2007363826769</v>
       </c>
       <c r="P26" t="n">
-        <v>718.6193072946221</v>
+        <v>671.9943291293083</v>
       </c>
       <c r="Q26" t="n">
-        <v>482.3230394517831</v>
+        <v>67.88417768364926</v>
       </c>
       <c r="R26" t="n">
-        <v>4.547568886808065</v>
+        <v>132.8260204788698</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4.145640838199281</v>
       </c>
       <c r="J27" t="n">
-        <v>22.55317790407656</v>
+        <v>268.6828788885546</v>
       </c>
       <c r="K27" t="n">
-        <v>215.3915616380249</v>
+        <v>586.7555442005049</v>
       </c>
       <c r="L27" t="n">
         <v>113.7721684938402</v>
@@ -36691,7 +36691,7 @@
         <v>128.4083714686895</v>
       </c>
       <c r="P27" t="n">
-        <v>716.789381525805</v>
+        <v>95.15005714064759</v>
       </c>
       <c r="Q27" t="n">
         <v>453.2546695943969</v>
@@ -36834,7 +36834,7 @@
         <v>50.79203489442558</v>
       </c>
       <c r="K29" t="n">
-        <v>718.6193072946221</v>
+        <v>96.88076038514673</v>
       </c>
       <c r="L29" t="n">
         <v>135.2853253461369</v>
@@ -36843,19 +36843,19 @@
         <v>163.4866700935136</v>
       </c>
       <c r="N29" t="n">
-        <v>168.019522399746</v>
+        <v>346.6096404123136</v>
       </c>
       <c r="O29" t="n">
-        <v>718.6193072946221</v>
+        <v>718.6193072946223</v>
       </c>
       <c r="P29" t="n">
-        <v>718.6193072946221</v>
+        <v>718.6193072946223</v>
       </c>
       <c r="Q29" t="n">
-        <v>167.4530621469372</v>
+        <v>482.3230394517831</v>
       </c>
       <c r="R29" t="n">
-        <v>4.547568886808065</v>
+        <v>132.8260204788698</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>6.397800393886481</v>
+        <v>4.145640838199281</v>
       </c>
       <c r="J30" t="n">
-        <v>22.55317790407656</v>
+        <v>268.6828788885546</v>
       </c>
       <c r="K30" t="n">
-        <v>262.317222976996</v>
+        <v>586.7555442005049</v>
       </c>
       <c r="L30" t="n">
         <v>113.7721684938402</v>
@@ -36922,7 +36922,7 @@
         <v>140.6854731435519</v>
       </c>
       <c r="N30" t="n">
-        <v>718.6193072946221</v>
+        <v>150.3034446423224</v>
       </c>
       <c r="O30" t="n">
         <v>128.4083714686895</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>380.8686277103136</v>
+        <v>50.79203489442558</v>
       </c>
       <c r="K32" t="n">
-        <v>96.88076038514673</v>
+        <v>718.6193072946223</v>
       </c>
       <c r="L32" t="n">
-        <v>135.2853253461369</v>
+        <v>718.6193072946223</v>
       </c>
       <c r="M32" t="n">
-        <v>718.6193072946221</v>
+        <v>296.520427647633</v>
       </c>
       <c r="N32" t="n">
-        <v>441.2578430753959</v>
+        <v>718.6193072946223</v>
       </c>
       <c r="O32" t="n">
         <v>153.2007363826769</v>
       </c>
       <c r="P32" t="n">
-        <v>718.6193072946221</v>
+        <v>116.6392382723742</v>
       </c>
       <c r="Q32" t="n">
         <v>67.88417768364926</v>
       </c>
       <c r="R32" t="n">
-        <v>132.8260204788698</v>
+        <v>4.547568886808065</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4.145640838199281</v>
       </c>
       <c r="J33" t="n">
-        <v>22.55317790407656</v>
+        <v>268.6828788885546</v>
       </c>
       <c r="K33" t="n">
-        <v>70.51940155195146</v>
+        <v>586.7555442005049</v>
       </c>
       <c r="L33" t="n">
         <v>113.7721684938402</v>
@@ -37159,10 +37159,10 @@
         <v>140.6854731435519</v>
       </c>
       <c r="N33" t="n">
-        <v>326.6039932876206</v>
+        <v>150.3034446423224</v>
       </c>
       <c r="O33" t="n">
-        <v>718.6193072946221</v>
+        <v>128.4083714686895</v>
       </c>
       <c r="P33" t="n">
         <v>95.15005714064759</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>50.79203489442558</v>
+        <v>380.8686277103136</v>
       </c>
       <c r="K35" t="n">
         <v>96.88076038514673</v>
       </c>
       <c r="L35" t="n">
-        <v>171.7033389588716</v>
+        <v>135.2853253461369</v>
       </c>
       <c r="M35" t="n">
         <v>163.4866700935136</v>
       </c>
       <c r="N35" t="n">
-        <v>554.3860435224195</v>
+        <v>168.019522399746</v>
       </c>
       <c r="O35" t="n">
-        <v>554.3860435224195</v>
+        <v>153.2007363826769</v>
       </c>
       <c r="P35" t="n">
-        <v>116.6392382723742</v>
+        <v>482.2540357395757</v>
       </c>
       <c r="Q35" t="n">
         <v>482.3230394517831</v>
       </c>
       <c r="R35" t="n">
-        <v>4.547568886808065</v>
+        <v>132.8260204788698</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.397800393886481</v>
       </c>
       <c r="J36" t="n">
-        <v>268.6828788885546</v>
+        <v>22.55317790407656</v>
       </c>
       <c r="K36" t="n">
-        <v>70.51940155195146</v>
+        <v>554.3860435224195</v>
       </c>
       <c r="L36" t="n">
-        <v>554.3860435224195</v>
+        <v>113.7721684938402</v>
       </c>
       <c r="M36" t="n">
         <v>140.6854731435519</v>
       </c>
       <c r="N36" t="n">
-        <v>554.3860435224195</v>
+        <v>150.3034446423224</v>
       </c>
       <c r="O36" t="n">
         <v>128.4083714686895</v>
       </c>
       <c r="P36" t="n">
-        <v>180.9062323791015</v>
+        <v>554.3860435224195</v>
       </c>
       <c r="Q36" t="n">
-        <v>43.18380393401947</v>
+        <v>270.2657253195012</v>
       </c>
       <c r="R36" t="n">
         <v>78.43735531559453</v>
@@ -37545,22 +37545,22 @@
         <v>380.8686277103136</v>
       </c>
       <c r="K38" t="n">
-        <v>96.88076038514673</v>
+        <v>554.3860435224195</v>
       </c>
       <c r="L38" t="n">
-        <v>554.3860435224195</v>
+        <v>148.3653477862156</v>
       </c>
       <c r="M38" t="n">
-        <v>266.3515416219543</v>
+        <v>163.4866700935136</v>
       </c>
       <c r="N38" t="n">
-        <v>554.3860435224195</v>
+        <v>168.019522399746</v>
       </c>
       <c r="O38" t="n">
         <v>153.2007363826769</v>
       </c>
       <c r="P38" t="n">
-        <v>116.6392382723742</v>
+        <v>554.3860435224195</v>
       </c>
       <c r="Q38" t="n">
         <v>67.88417768364926</v>
@@ -37621,31 +37621,31 @@
         <v>6.397800393886481</v>
       </c>
       <c r="J39" t="n">
-        <v>22.55317790407656</v>
+        <v>268.6828788885546</v>
       </c>
       <c r="K39" t="n">
-        <v>70.51940155195146</v>
+        <v>554.3860435224195</v>
       </c>
       <c r="L39" t="n">
-        <v>113.7721684938402</v>
+        <v>143.8895096162381</v>
       </c>
       <c r="M39" t="n">
         <v>140.6854731435519</v>
       </c>
       <c r="N39" t="n">
-        <v>554.3860435224195</v>
+        <v>150.3034446423224</v>
       </c>
       <c r="O39" t="n">
-        <v>513.7116912601369</v>
+        <v>128.4083714686895</v>
       </c>
       <c r="P39" t="n">
-        <v>554.3860435224195</v>
+        <v>95.15005714064759</v>
       </c>
       <c r="Q39" t="n">
-        <v>43.18380393401947</v>
+        <v>453.2546695943969</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>78.43735531559453</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>92.83412580984837</v>
+        <v>380.8686277103136</v>
       </c>
       <c r="K41" t="n">
-        <v>96.88076038514673</v>
+        <v>554.3860435224195</v>
       </c>
       <c r="L41" t="n">
-        <v>554.3860435224195</v>
+        <v>148.3653477862156</v>
       </c>
       <c r="M41" t="n">
-        <v>554.3860435224195</v>
+        <v>163.4866700935136</v>
       </c>
       <c r="N41" t="n">
-        <v>554.3860435224195</v>
+        <v>168.019522399746</v>
       </c>
       <c r="O41" t="n">
         <v>153.2007363826769</v>
       </c>
       <c r="P41" t="n">
-        <v>116.6392382723742</v>
+        <v>554.3860435224195</v>
       </c>
       <c r="Q41" t="n">
         <v>67.88417768364926</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.397800393886481</v>
       </c>
       <c r="J42" t="n">
-        <v>22.55317790407656</v>
+        <v>268.6828788885546</v>
       </c>
       <c r="K42" t="n">
         <v>554.3860435224195</v>
       </c>
       <c r="L42" t="n">
-        <v>113.7721684938402</v>
+        <v>143.8895096162381</v>
       </c>
       <c r="M42" t="n">
         <v>140.6854731435519</v>
@@ -37873,7 +37873,7 @@
         <v>150.3034446423224</v>
       </c>
       <c r="O42" t="n">
-        <v>489.4905692850465</v>
+        <v>128.4083714686895</v>
       </c>
       <c r="P42" t="n">
         <v>95.15005714064759</v>
@@ -37882,7 +37882,7 @@
         <v>453.2546695943969</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>78.43735531559453</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>50.79203489442558</v>
       </c>
       <c r="K44" t="n">
-        <v>96.88076038514673</v>
+        <v>554.3860435224195</v>
       </c>
       <c r="L44" t="n">
         <v>554.3860435224195</v>
       </c>
       <c r="M44" t="n">
-        <v>554.3860435224195</v>
+        <v>525.289372423243</v>
       </c>
       <c r="N44" t="n">
         <v>168.019522399746</v>
       </c>
       <c r="O44" t="n">
-        <v>453.3308968287117</v>
+        <v>153.2007363826769</v>
       </c>
       <c r="P44" t="n">
         <v>116.6392382723742</v>
@@ -38040,7 +38040,7 @@
         <v>67.88417768364926</v>
       </c>
       <c r="R44" t="n">
-        <v>132.8260204788698</v>
+        <v>4.547568886808065</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.397800393886481</v>
       </c>
       <c r="J45" t="n">
-        <v>22.55317790407656</v>
+        <v>268.6828788885546</v>
       </c>
       <c r="K45" t="n">
-        <v>70.51940155195146</v>
+        <v>554.3860435224195</v>
       </c>
       <c r="L45" t="n">
-        <v>532.7433362269358</v>
+        <v>113.7721684938402</v>
       </c>
       <c r="M45" t="n">
         <v>140.6854731435519</v>
@@ -38110,16 +38110,16 @@
         <v>150.3034446423224</v>
       </c>
       <c r="O45" t="n">
-        <v>554.3860435224195</v>
+        <v>128.4083714686895</v>
       </c>
       <c r="P45" t="n">
-        <v>95.15005714064759</v>
+        <v>125.2673982630455</v>
       </c>
       <c r="Q45" t="n">
         <v>453.2546695943969</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>78.43735531559453</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
